--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_22_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_22_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4572642.142999779</v>
+        <v>-4573308.939120027</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>397594.7381667058</v>
+        <v>397594.7381667056</v>
       </c>
     </row>
     <row r="8">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33.73507956837201</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="I11" t="n">
-        <v>35.89105811681792</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.58881163589394</v>
+        <v>22.58881163589403</v>
       </c>
       <c r="T11" t="n">
-        <v>17.7601928459344</v>
+        <v>17.76019284593448</v>
       </c>
       <c r="U11" t="n">
-        <v>45.49679044823571</v>
+        <v>45.49679044823574</v>
       </c>
       <c r="V11" t="n">
-        <v>82.66266089709376</v>
+        <v>69.62613768518979</v>
       </c>
       <c r="W11" t="n">
-        <v>82.66266089709376</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>45.21722826929984</v>
       </c>
       <c r="T12" t="n">
-        <v>82.66266089709376</v>
+        <v>10.29207558827157</v>
       </c>
       <c r="U12" t="n">
-        <v>82.66266089709376</v>
+        <v>32.57485987793719</v>
       </c>
       <c r="V12" t="n">
-        <v>62.02850107389928</v>
+        <v>35.99613671235127</v>
       </c>
       <c r="W12" t="n">
-        <v>62.05179937396053</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="X12" t="n">
-        <v>12.66013023641955</v>
+        <v>12.66013023641963</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.73150193097456</v>
+        <v>18.73150193097464</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>30.69078435787944</v>
+        <v>30.69078435787953</v>
       </c>
       <c r="T13" t="n">
-        <v>19.08561116512927</v>
+        <v>19.08561116512935</v>
       </c>
       <c r="U13" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="V13" t="n">
-        <v>40.45623098139885</v>
+        <v>40.45623098139893</v>
       </c>
       <c r="W13" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="X13" t="n">
-        <v>17.26667120519147</v>
+        <v>17.26667120519156</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.48848861111736</v>
+        <v>12.48848861111745</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.73507956837206</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>33.73507956837233</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>35.89105811681792</v>
+        <v>35.89105811681786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.58881163589395</v>
+        <v>22.58881163589388</v>
       </c>
       <c r="T14" t="n">
-        <v>17.76019284593443</v>
+        <v>17.76019284593434</v>
       </c>
       <c r="U14" t="n">
-        <v>45.49679044823566</v>
+        <v>45.49679044823571</v>
       </c>
       <c r="V14" t="n">
-        <v>82.66266089709376</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.044035583042479</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="T15" t="n">
-        <v>82.66266089709376</v>
+        <v>23.40960561292016</v>
       </c>
       <c r="U15" t="n">
-        <v>32.5748598779371</v>
+        <v>32.57485987793704</v>
       </c>
       <c r="V15" t="n">
-        <v>35.99613671235119</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="W15" t="n">
-        <v>82.66266089709376</v>
+        <v>62.05179937396048</v>
       </c>
       <c r="X15" t="n">
-        <v>62.12539851094862</v>
+        <v>12.66013023641949</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.73150193097456</v>
+        <v>18.7315019309745</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>30.69078435787944</v>
+        <v>30.69078435787938</v>
       </c>
       <c r="T16" t="n">
-        <v>19.08561116512927</v>
+        <v>19.08561116512921</v>
       </c>
       <c r="U16" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="V16" t="n">
-        <v>40.45623098139885</v>
+        <v>40.45623098139879</v>
       </c>
       <c r="W16" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="X16" t="n">
-        <v>17.26667120519147</v>
+        <v>17.26667120519141</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.48848861111736</v>
+        <v>12.4884886111173</v>
       </c>
     </row>
     <row r="17">
@@ -1965,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.044035583042479</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="T18" t="n">
-        <v>66.7652361351177</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>82.66266089709376</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>72.80927171816026</v>
       </c>
     </row>
     <row r="19">
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2202,31 +2202,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.044035583042479</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>82.66266089709376</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>66.7652361351177</v>
+        <v>66.76523613511776</v>
       </c>
       <c r="U21" t="n">
-        <v>82.66266089709376</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>82.66266089709376</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
     </row>
     <row r="22">
@@ -2330,10 +2330,10 @@
         <v>67.03582309149687</v>
       </c>
       <c r="G23" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709386</v>
       </c>
       <c r="H23" t="n">
-        <v>10.73420125866863</v>
+        <v>10.73420125866866</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2439,31 +2439,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R24" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709386</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709386</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>82.66266089709386</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>66.76523613511782</v>
       </c>
       <c r="Y24" t="n">
-        <v>72.80927171816036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2558,22 +2558,22 @@
         <v>137.3600187129843</v>
       </c>
       <c r="D26" t="n">
-        <v>124.9266809740328</v>
+        <v>124.9266809740327</v>
       </c>
       <c r="E26" t="n">
-        <v>158.6334333934417</v>
+        <v>158.6334333934416</v>
       </c>
       <c r="F26" t="n">
-        <v>190.353770971819</v>
+        <v>190.3537709718189</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9806087774159</v>
+        <v>205.980608777416</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0521491389908</v>
+        <v>134.0521491389907</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69836365167447</v>
+        <v>27.69836365167442</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.3961171707505</v>
+        <v>14.39611717075046</v>
       </c>
       <c r="T26" t="n">
-        <v>9.567498380790965</v>
+        <v>9.567498380791013</v>
       </c>
       <c r="U26" t="n">
         <v>37.30409598309278</v>
@@ -2615,13 +2615,13 @@
         <v>108.0343049409575</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0509851575724</v>
+        <v>125.0509851575723</v>
       </c>
       <c r="X26" t="n">
         <v>146.9372356265116</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4400887502554</v>
+        <v>169.4400887502553</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>90.17471816183436</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.044035583042479</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3183216232903</v>
+        <v>26.36774895004114</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4706822307765</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.099381123128047</v>
+        <v>2.099381123127991</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2276440809881</v>
+        <v>24.38216541279361</v>
       </c>
       <c r="V27" t="n">
-        <v>27.80344224720776</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.8591049088171</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.467435771276115</v>
+        <v>4.467435771276058</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.53880746583113</v>
+        <v>10.53880746583107</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.49808989273601</v>
+        <v>22.49808989273595</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89291669998583</v>
+        <v>10.89291669998578</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81078260145014</v>
+        <v>75.81078260145009</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26353651625541</v>
+        <v>32.26353651625536</v>
       </c>
       <c r="W28" t="n">
-        <v>77.46522842114084</v>
+        <v>77.46522842114078</v>
       </c>
       <c r="X28" t="n">
-        <v>9.073976740048039</v>
+        <v>9.073976740047982</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.295794145973929</v>
+        <v>4.295794145973872</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>134.0521491389907</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69836365167441</v>
+        <v>27.69836365167442</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39611717075044</v>
+        <v>14.39611717075046</v>
       </c>
       <c r="T29" t="n">
-        <v>9.567498380791013</v>
+        <v>9.56749838079091</v>
       </c>
       <c r="U29" t="n">
-        <v>37.3040959830921</v>
+        <v>37.30409598309233</v>
       </c>
       <c r="V29" t="n">
         <v>108.0343049409575</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>15.60009182334093</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2913,28 +2913,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.044035583042479</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3183216232903</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4706822307765</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>2.099381123127991</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2276440809881</v>
+        <v>24.38216541279361</v>
       </c>
       <c r="V30" t="n">
-        <v>27.8034422472077</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.85910490881705</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>94.64215393311073</v>
+        <v>4.467435771276058</v>
       </c>
       <c r="Y30" t="n">
         <v>10.53880746583107</v>
@@ -3032,22 +3032,22 @@
         <v>137.3600187129843</v>
       </c>
       <c r="D32" t="n">
-        <v>124.9266809740328</v>
+        <v>124.9266809740327</v>
       </c>
       <c r="E32" t="n">
         <v>158.6334333934416</v>
       </c>
       <c r="F32" t="n">
-        <v>190.353770971819</v>
+        <v>190.3537709718189</v>
       </c>
       <c r="G32" t="n">
         <v>205.980608777416</v>
       </c>
       <c r="H32" t="n">
-        <v>134.0521491389908</v>
+        <v>134.0521491389907</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69836365167409</v>
+        <v>27.69836365167443</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39611717075048</v>
+        <v>14.39611717075046</v>
       </c>
       <c r="T32" t="n">
-        <v>9.567498380790939</v>
+        <v>9.56749838079091</v>
       </c>
       <c r="U32" t="n">
-        <v>37.30409598309219</v>
+        <v>37.30409598309216</v>
       </c>
       <c r="V32" t="n">
         <v>108.0343049409575</v>
       </c>
       <c r="W32" t="n">
-        <v>125.0509851575724</v>
+        <v>125.0509851575723</v>
       </c>
       <c r="X32" t="n">
         <v>146.9372356265116</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.4400887502554</v>
+        <v>169.4400887502553</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.044035583042479</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3183216232903</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.4706822307765</v>
       </c>
       <c r="T33" t="n">
-        <v>2.099381123128019</v>
+        <v>13.74694224005841</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38216541279364</v>
+        <v>237.2276440809881</v>
       </c>
       <c r="V33" t="n">
-        <v>143.3054875528709</v>
+        <v>27.8034422472077</v>
       </c>
       <c r="W33" t="n">
-        <v>53.85910490881707</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>4.467435771276087</v>
+        <v>4.467435771276058</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5388074658311</v>
+        <v>10.53880746583107</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.49808989273598</v>
+        <v>22.49808989273595</v>
       </c>
       <c r="T34" t="n">
-        <v>10.8929166999858</v>
+        <v>10.89291669998578</v>
       </c>
       <c r="U34" t="n">
-        <v>75.81078260145011</v>
+        <v>75.81078260145009</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26353651625539</v>
+        <v>32.26353651625536</v>
       </c>
       <c r="W34" t="n">
-        <v>77.46522842114081</v>
+        <v>77.46522842114078</v>
       </c>
       <c r="X34" t="n">
-        <v>9.07397674004801</v>
+        <v>9.073976740047982</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.2957941459739</v>
+        <v>4.295794145973872</v>
       </c>
     </row>
     <row r="35">
@@ -3269,13 +3269,13 @@
         <v>114.5266618777612</v>
       </c>
       <c r="D35" t="n">
-        <v>102.0933241388096</v>
+        <v>102.0933241388097</v>
       </c>
       <c r="E35" t="n">
         <v>135.8000765582185</v>
       </c>
       <c r="F35" t="n">
-        <v>167.5204141365958</v>
+        <v>167.5204141365959</v>
       </c>
       <c r="G35" t="n">
         <v>183.1472519421929</v>
@@ -3284,7 +3284,7 @@
         <v>111.2187923037676</v>
       </c>
       <c r="I35" t="n">
-        <v>4.865006816451313</v>
+        <v>4.865006816451341</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>14.47073914786954</v>
+        <v>14.4707391478691</v>
       </c>
       <c r="V35" t="n">
-        <v>85.20094810573437</v>
+        <v>85.2009481057344</v>
       </c>
       <c r="W35" t="n">
-        <v>102.2176283223492</v>
+        <v>102.2176283223493</v>
       </c>
       <c r="X35" t="n">
         <v>124.1038787912885</v>
       </c>
       <c r="Y35" t="n">
-        <v>146.6067319150322</v>
+        <v>146.6067319150323</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>24.35724577390186</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3387,25 +3387,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.044035583042479</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R36" t="n">
         <v>134.3183216232903</v>
       </c>
       <c r="S36" t="n">
-        <v>129.4728786319698</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9448597913225</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2276440809881</v>
+        <v>1.54880857757054</v>
       </c>
       <c r="V36" t="n">
-        <v>4.970085411984599</v>
+        <v>4.970085411984627</v>
       </c>
       <c r="W36" t="n">
-        <v>31.02574807359395</v>
+        <v>31.02574807359397</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>52.97742576622699</v>
+        <v>52.97742576622701</v>
       </c>
       <c r="V37" t="n">
-        <v>9.430179681032257</v>
+        <v>9.430179681032286</v>
       </c>
       <c r="W37" t="n">
-        <v>54.63187158591768</v>
+        <v>54.63187158591771</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,22 +3506,22 @@
         <v>114.5266618777612</v>
       </c>
       <c r="D38" t="n">
-        <v>102.0933241388097</v>
+        <v>102.0933241388096</v>
       </c>
       <c r="E38" t="n">
-        <v>135.8000765582186</v>
+        <v>135.8000765582185</v>
       </c>
       <c r="F38" t="n">
-        <v>167.5204141365959</v>
+        <v>167.5204141365958</v>
       </c>
       <c r="G38" t="n">
-        <v>183.147251942193</v>
+        <v>183.1472519421929</v>
       </c>
       <c r="H38" t="n">
-        <v>111.2187923037677</v>
+        <v>111.2187923037676</v>
       </c>
       <c r="I38" t="n">
-        <v>4.86500681645137</v>
+        <v>4.865006816451313</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>14.47073914786912</v>
+        <v>14.47073914786931</v>
       </c>
       <c r="V38" t="n">
-        <v>85.20094810573443</v>
+        <v>85.20094810573437</v>
       </c>
       <c r="W38" t="n">
-        <v>102.2176283223493</v>
+        <v>102.2176283223492</v>
       </c>
       <c r="X38" t="n">
         <v>124.1038787912885</v>
       </c>
       <c r="Y38" t="n">
-        <v>146.6067319150323</v>
+        <v>146.6067319150322</v>
       </c>
     </row>
     <row r="39">
@@ -3624,28 +3624,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R39" t="n">
-        <v>34.15640033488508</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9448597913225</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276440809881</v>
+        <v>1.548808577570511</v>
       </c>
       <c r="V39" t="n">
-        <v>4.970085411984655</v>
+        <v>4.970085411984599</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>202.3387253300569</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>52.97742576622704</v>
+        <v>52.97742576622699</v>
       </c>
       <c r="V40" t="n">
-        <v>9.430179681032314</v>
+        <v>9.430179681032257</v>
       </c>
       <c r="W40" t="n">
-        <v>54.63187158591774</v>
+        <v>54.63187158591768</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>138.4084048744157</v>
+        <v>138.4084048744156</v>
       </c>
       <c r="C41" t="n">
-        <v>114.5266618777612</v>
+        <v>114.5266618777611</v>
       </c>
       <c r="D41" t="n">
-        <v>102.0933241388097</v>
+        <v>102.0933241388096</v>
       </c>
       <c r="E41" t="n">
-        <v>135.8000765582186</v>
+        <v>135.8000765582184</v>
       </c>
       <c r="F41" t="n">
-        <v>167.5204141365959</v>
+        <v>167.5204141365958</v>
       </c>
       <c r="G41" t="n">
-        <v>183.147251942193</v>
+        <v>183.1472519421928</v>
       </c>
       <c r="H41" t="n">
-        <v>111.2187923037677</v>
+        <v>111.2187923037676</v>
       </c>
       <c r="I41" t="n">
-        <v>4.86500681645137</v>
+        <v>4.865006816451267</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>14.47073914786912</v>
+        <v>14.47073914786901</v>
       </c>
       <c r="V41" t="n">
-        <v>85.20094810573443</v>
+        <v>85.20094810573431</v>
       </c>
       <c r="W41" t="n">
-        <v>102.2176283223493</v>
+        <v>102.2176283223492</v>
       </c>
       <c r="X41" t="n">
-        <v>124.1038787912885</v>
+        <v>124.1038787912884</v>
       </c>
       <c r="Y41" t="n">
-        <v>146.6067319150323</v>
+        <v>146.6067319150322</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.044035583042479</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3870,19 +3870,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9448597913225</v>
       </c>
       <c r="U42" t="n">
         <v>237.2276440809881</v>
       </c>
       <c r="V42" t="n">
-        <v>4.970085411984655</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>115.6983992830404</v>
+        <v>65.18214840847901</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.97742576622704</v>
+        <v>52.97742576622693</v>
       </c>
       <c r="V43" t="n">
-        <v>9.430179681032314</v>
+        <v>9.4301796810322</v>
       </c>
       <c r="W43" t="n">
-        <v>54.63187158591774</v>
+        <v>54.63187158591762</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>111.2187923037677</v>
       </c>
       <c r="I44" t="n">
-        <v>4.865006816451437</v>
+        <v>4.865006816451409</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>14.47073914786918</v>
+        <v>14.47073914786915</v>
       </c>
       <c r="V44" t="n">
-        <v>85.20094810573448</v>
+        <v>85.20094810573445</v>
       </c>
       <c r="W44" t="n">
-        <v>102.2176283223494</v>
+        <v>102.2176283223493</v>
       </c>
       <c r="X44" t="n">
         <v>124.1038787912886</v>
       </c>
       <c r="Y44" t="n">
-        <v>146.6067319150324</v>
+        <v>146.6067319150323</v>
       </c>
     </row>
     <row r="45">
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>114.7829385029172</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9448597913225</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276440809881</v>
+        <v>1.548808577570596</v>
       </c>
       <c r="V45" t="n">
-        <v>57.49240681081663</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>31.02574807359406</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.9774257662271</v>
+        <v>52.97742576622707</v>
       </c>
       <c r="V46" t="n">
-        <v>9.430179681032371</v>
+        <v>9.430179681032342</v>
       </c>
       <c r="W46" t="n">
-        <v>54.63187158591779</v>
+        <v>54.63187158591776</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.86660692915934</v>
+        <v>90.1106501415593</v>
       </c>
       <c r="C11" t="n">
-        <v>42.86660692915934</v>
+        <v>90.1106501415593</v>
       </c>
       <c r="D11" t="n">
-        <v>42.86660692915934</v>
+        <v>90.1106501415593</v>
       </c>
       <c r="E11" t="n">
-        <v>42.86660692915934</v>
+        <v>90.1106501415593</v>
       </c>
       <c r="F11" t="n">
-        <v>42.86660692915934</v>
+        <v>90.1106501415593</v>
       </c>
       <c r="G11" t="n">
-        <v>42.86660692915934</v>
+        <v>90.1106501415593</v>
       </c>
       <c r="H11" t="n">
-        <v>42.86660692915934</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="I11" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J11" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K11" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L11" t="n">
-        <v>88.44904715989031</v>
+        <v>55.22196873020038</v>
       </c>
       <c r="M11" t="n">
-        <v>170.2850814480131</v>
+        <v>137.0580030183233</v>
       </c>
       <c r="N11" t="n">
-        <v>252.1211157361359</v>
+        <v>214.5207806827079</v>
       </c>
       <c r="O11" t="n">
-        <v>320.2255419648565</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="P11" t="n">
-        <v>320.2255419648565</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="Q11" t="n">
-        <v>320.2255419648565</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="R11" t="n">
-        <v>330.650643588375</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="S11" t="n">
-        <v>307.8336621379771</v>
+        <v>307.8336621379775</v>
       </c>
       <c r="T11" t="n">
-        <v>289.8940734047101</v>
+        <v>289.8940734047103</v>
       </c>
       <c r="U11" t="n">
-        <v>243.9377194165932</v>
+        <v>243.9377194165934</v>
       </c>
       <c r="V11" t="n">
-        <v>160.4400821468015</v>
+        <v>173.6082874113511</v>
       </c>
       <c r="W11" t="n">
-        <v>76.94244487700985</v>
+        <v>173.6082874113511</v>
       </c>
       <c r="X11" t="n">
-        <v>76.94244487700985</v>
+        <v>173.6082874113511</v>
       </c>
       <c r="Y11" t="n">
-        <v>76.94244487700985</v>
+        <v>173.6082874113511</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="C12" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="D12" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="E12" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="F12" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="G12" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="H12" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="I12" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J12" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K12" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L12" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="M12" t="n">
-        <v>88.44904715989031</v>
+        <v>85.14254072400669</v>
       </c>
       <c r="N12" t="n">
-        <v>166.9785750121294</v>
+        <v>166.9785750121296</v>
       </c>
       <c r="O12" t="n">
-        <v>248.8146093002522</v>
+        <v>248.8146093002526</v>
       </c>
       <c r="P12" t="n">
-        <v>330.650643588375</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.650643588375</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="R12" t="n">
-        <v>330.650643588375</v>
+        <v>247.1530063185837</v>
       </c>
       <c r="S12" t="n">
-        <v>330.650643588375</v>
+        <v>201.479038369796</v>
       </c>
       <c r="T12" t="n">
-        <v>247.1530063185834</v>
+        <v>191.0830024220469</v>
       </c>
       <c r="U12" t="n">
-        <v>163.6553690487917</v>
+        <v>158.1791035554437</v>
       </c>
       <c r="V12" t="n">
-        <v>101.0003174589944</v>
+        <v>121.8193695025636</v>
       </c>
       <c r="W12" t="n">
-        <v>38.32173223277165</v>
+        <v>38.32173223277183</v>
       </c>
       <c r="X12" t="n">
-        <v>25.53372189295393</v>
+        <v>25.53372189295402</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="C13" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="D13" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="E13" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="F13" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="G13" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="H13" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="I13" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J13" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K13" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L13" t="n">
-        <v>88.44904715989031</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="M13" t="n">
-        <v>88.44904715989031</v>
+        <v>88.44904715989044</v>
       </c>
       <c r="N13" t="n">
-        <v>170.2850814480131</v>
+        <v>170.2850814480134</v>
       </c>
       <c r="O13" t="n">
-        <v>170.2850814480131</v>
+        <v>216.245311911791</v>
       </c>
       <c r="P13" t="n">
-        <v>216.2453119117902</v>
+        <v>216.245311911791</v>
       </c>
       <c r="Q13" t="n">
-        <v>293.3561598243331</v>
+        <v>293.3561598243338</v>
       </c>
       <c r="R13" t="n">
-        <v>294.8080715736907</v>
+        <v>294.8080715736913</v>
       </c>
       <c r="S13" t="n">
-        <v>263.8072792930044</v>
+        <v>263.8072792930049</v>
       </c>
       <c r="T13" t="n">
-        <v>244.5288841767122</v>
+        <v>244.5288841767126</v>
       </c>
       <c r="U13" t="n">
-        <v>161.0312469069205</v>
+        <v>161.0312469069208</v>
       </c>
       <c r="V13" t="n">
-        <v>120.1663671277297</v>
+        <v>120.16636712773</v>
       </c>
       <c r="W13" t="n">
-        <v>36.66872985793805</v>
+        <v>36.66872985793822</v>
       </c>
       <c r="X13" t="n">
-        <v>19.22764783249211</v>
+        <v>19.22764783249221</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.86660692915934</v>
+        <v>76.94244487701013</v>
       </c>
       <c r="C14" t="n">
-        <v>42.86660692915934</v>
+        <v>76.94244487701013</v>
       </c>
       <c r="D14" t="n">
-        <v>42.86660692915934</v>
+        <v>76.94244487701013</v>
       </c>
       <c r="E14" t="n">
-        <v>42.86660692915934</v>
+        <v>76.94244487701013</v>
       </c>
       <c r="F14" t="n">
-        <v>42.86660692915934</v>
+        <v>76.94244487701013</v>
       </c>
       <c r="G14" t="n">
-        <v>42.86660692915934</v>
+        <v>42.86660692915929</v>
       </c>
       <c r="H14" t="n">
-        <v>42.86660692915934</v>
+        <v>42.86660692915929</v>
       </c>
       <c r="I14" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J14" t="n">
-        <v>6.613012871767501</v>
+        <v>86.50633016252124</v>
       </c>
       <c r="K14" t="n">
-        <v>30.48173986579341</v>
+        <v>86.50633016252124</v>
       </c>
       <c r="L14" t="n">
-        <v>79.09069572422626</v>
+        <v>135.1152860209541</v>
       </c>
       <c r="M14" t="n">
-        <v>160.9267300123491</v>
+        <v>216.951320309077</v>
       </c>
       <c r="N14" t="n">
-        <v>238.3895076767336</v>
+        <v>294.4140979734616</v>
       </c>
       <c r="O14" t="n">
-        <v>320.2255419648565</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="P14" t="n">
-        <v>320.2255419648565</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="Q14" t="n">
-        <v>320.2255419648565</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="R14" t="n">
-        <v>330.650643588375</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="S14" t="n">
-        <v>307.8336621379771</v>
+        <v>307.8336621379776</v>
       </c>
       <c r="T14" t="n">
-        <v>289.89407340471</v>
+        <v>289.8940734047106</v>
       </c>
       <c r="U14" t="n">
-        <v>243.9377194165932</v>
+        <v>243.9377194165938</v>
       </c>
       <c r="V14" t="n">
-        <v>160.4400821468015</v>
+        <v>243.9377194165938</v>
       </c>
       <c r="W14" t="n">
-        <v>76.9424448770099</v>
+        <v>160.4400821468019</v>
       </c>
       <c r="X14" t="n">
-        <v>76.9424448770099</v>
+        <v>160.4400821468019</v>
       </c>
       <c r="Y14" t="n">
-        <v>76.9424448770099</v>
+        <v>160.4400821468019</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="C15" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="D15" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="E15" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="F15" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="G15" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="H15" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="I15" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J15" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K15" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L15" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="M15" t="n">
-        <v>88.44904715989031</v>
+        <v>85.14254072400669</v>
       </c>
       <c r="N15" t="n">
-        <v>170.2850814480131</v>
+        <v>166.9785750121296</v>
       </c>
       <c r="O15" t="n">
-        <v>248.8146093002522</v>
+        <v>248.8146093002526</v>
       </c>
       <c r="P15" t="n">
-        <v>330.650643588375</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="Q15" t="n">
-        <v>324.5455571408574</v>
+        <v>324.5455571408579</v>
       </c>
       <c r="R15" t="n">
-        <v>324.5455571408574</v>
+        <v>324.5455571408579</v>
       </c>
       <c r="S15" t="n">
-        <v>324.5455571408574</v>
+        <v>241.0479198710661</v>
       </c>
       <c r="T15" t="n">
-        <v>241.0479198710657</v>
+        <v>217.4018535953891</v>
       </c>
       <c r="U15" t="n">
-        <v>208.1440210044626</v>
+        <v>184.4979547287861</v>
       </c>
       <c r="V15" t="n">
-        <v>171.7842869515826</v>
+        <v>101.0003174589943</v>
       </c>
       <c r="W15" t="n">
-        <v>88.28664968179092</v>
+        <v>38.32173223277155</v>
       </c>
       <c r="X15" t="n">
-        <v>25.53372189295393</v>
+        <v>25.53372189295388</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
     </row>
     <row r="16">
@@ -5410,52 +5410,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="C16" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="D16" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="E16" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="F16" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="G16" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="H16" t="n">
-        <v>6.613012871767501</v>
+        <v>45.1008324895452</v>
       </c>
       <c r="I16" t="n">
-        <v>6.613012871767501</v>
+        <v>45.1008324895452</v>
       </c>
       <c r="J16" t="n">
-        <v>6.613012871767501</v>
+        <v>126.9368667776681</v>
       </c>
       <c r="K16" t="n">
-        <v>88.44904715989031</v>
+        <v>126.9368667776681</v>
       </c>
       <c r="L16" t="n">
-        <v>88.44904715989031</v>
+        <v>126.9368667776681</v>
       </c>
       <c r="M16" t="n">
-        <v>170.2850814480131</v>
+        <v>126.9368667776681</v>
       </c>
       <c r="N16" t="n">
-        <v>211.5201255362103</v>
+        <v>208.7729010657911</v>
       </c>
       <c r="O16" t="n">
-        <v>293.3561598243331</v>
+        <v>211.5201255362101</v>
       </c>
       <c r="P16" t="n">
-        <v>293.3561598243331</v>
+        <v>293.356159824333</v>
       </c>
       <c r="Q16" t="n">
-        <v>293.3561598243331</v>
+        <v>293.356159824333</v>
       </c>
       <c r="R16" t="n">
         <v>294.8080715736907</v>
@@ -5467,19 +5467,19 @@
         <v>244.5288841767122</v>
       </c>
       <c r="U16" t="n">
-        <v>161.0312469069205</v>
+        <v>161.0312469069204</v>
       </c>
       <c r="V16" t="n">
         <v>120.1663671277297</v>
       </c>
       <c r="W16" t="n">
-        <v>36.66872985793805</v>
+        <v>36.66872985793793</v>
       </c>
       <c r="X16" t="n">
-        <v>19.22764783249211</v>
+        <v>19.22764783249206</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>220.147330737173</v>
+        <v>220.1473307371737</v>
       </c>
       <c r="C17" t="n">
-        <v>205.9634208051909</v>
+        <v>205.9634208051916</v>
       </c>
       <c r="D17" t="n">
-        <v>204.3384378822508</v>
+        <v>204.3384378822515</v>
       </c>
       <c r="E17" t="n">
-        <v>168.6662302932411</v>
+        <v>168.6662302932418</v>
       </c>
       <c r="F17" t="n">
-        <v>100.9532776755674</v>
+        <v>100.9532776755682</v>
       </c>
       <c r="G17" t="n">
-        <v>17.45564040577628</v>
+        <v>17.45564040577629</v>
       </c>
       <c r="H17" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="I17" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J17" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K17" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L17" t="n">
-        <v>55.22196873020036</v>
+        <v>55.22196873020038</v>
       </c>
       <c r="M17" t="n">
-        <v>137.0580030183232</v>
+        <v>137.0580030183233</v>
       </c>
       <c r="N17" t="n">
-        <v>214.5207806827077</v>
+        <v>214.5207806827079</v>
       </c>
       <c r="O17" t="n">
-        <v>250.7573262976216</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="P17" t="n">
-        <v>250.7573262976216</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7573262976216</v>
+        <v>315.5198370784046</v>
       </c>
       <c r="R17" t="n">
-        <v>250.7573262976216</v>
+        <v>315.5198370784046</v>
       </c>
       <c r="S17" t="n">
-        <v>250.7573262976216</v>
+        <v>315.5198370784046</v>
       </c>
       <c r="T17" t="n">
-        <v>330.650643588375</v>
+        <v>315.5198370784046</v>
       </c>
       <c r="U17" t="n">
-        <v>330.650643588375</v>
+        <v>315.5198370784046</v>
       </c>
       <c r="V17" t="n">
-        <v>330.650643588375</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="W17" t="n">
-        <v>328.9001008840818</v>
+        <v>328.9001008840823</v>
       </c>
       <c r="X17" t="n">
-        <v>305.0422344737893</v>
+        <v>305.0422344737898</v>
       </c>
       <c r="Y17" t="n">
-        <v>258.4542133930485</v>
+        <v>258.4542133930493</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="C18" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="D18" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="E18" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="F18" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="G18" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="H18" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="I18" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J18" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K18" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L18" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="M18" t="n">
-        <v>88.44904715989031</v>
+        <v>85.14254072400669</v>
       </c>
       <c r="N18" t="n">
-        <v>166.9785750121294</v>
+        <v>166.9785750121296</v>
       </c>
       <c r="O18" t="n">
-        <v>248.8146093002522</v>
+        <v>248.8146093002526</v>
       </c>
       <c r="P18" t="n">
-        <v>330.650643588375</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="Q18" t="n">
-        <v>324.5455571408574</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="R18" t="n">
-        <v>241.0479198710657</v>
+        <v>247.1530063185837</v>
       </c>
       <c r="S18" t="n">
-        <v>241.0479198710657</v>
+        <v>163.6553690487919</v>
       </c>
       <c r="T18" t="n">
-        <v>173.6082874113509</v>
+        <v>163.6553690487919</v>
       </c>
       <c r="U18" t="n">
-        <v>90.11065014155918</v>
+        <v>163.6553690487919</v>
       </c>
       <c r="V18" t="n">
-        <v>6.613012871767501</v>
+        <v>80.1577317790001</v>
       </c>
       <c r="W18" t="n">
-        <v>6.613012871767501</v>
+        <v>80.1577317790001</v>
       </c>
       <c r="X18" t="n">
-        <v>6.613012871767501</v>
+        <v>80.1577317790001</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="C19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="D19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="E19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="F19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="G19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="H19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="I19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="M19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="N19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="O19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="P19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="R19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="S19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="T19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="U19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="V19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="W19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="X19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>220.1473307371734</v>
+        <v>220.1473307371737</v>
       </c>
       <c r="C20" t="n">
-        <v>205.9634208051914</v>
+        <v>205.9634208051919</v>
       </c>
       <c r="D20" t="n">
-        <v>204.3384378822514</v>
+        <v>204.3384378822518</v>
       </c>
       <c r="E20" t="n">
-        <v>168.6662302932416</v>
+        <v>168.6662302932422</v>
       </c>
       <c r="F20" t="n">
-        <v>100.9532776755675</v>
+        <v>100.9532776755685</v>
       </c>
       <c r="G20" t="n">
-        <v>17.45564040577625</v>
+        <v>17.45564040577626</v>
       </c>
       <c r="H20" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="I20" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J20" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K20" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L20" t="n">
-        <v>55.22196873020036</v>
+        <v>55.22196873020038</v>
       </c>
       <c r="M20" t="n">
-        <v>137.0580030183232</v>
+        <v>137.0580030183233</v>
       </c>
       <c r="N20" t="n">
-        <v>214.5207806827077</v>
+        <v>214.5207806827079</v>
       </c>
       <c r="O20" t="n">
-        <v>250.7573262976216</v>
+        <v>296.3568149708308</v>
       </c>
       <c r="P20" t="n">
-        <v>250.7573262976216</v>
+        <v>296.3568149708308</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7573262976216</v>
+        <v>296.3568149708308</v>
       </c>
       <c r="R20" t="n">
-        <v>250.7573262976216</v>
+        <v>296.3568149708308</v>
       </c>
       <c r="S20" t="n">
-        <v>330.650643588375</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="T20" t="n">
-        <v>330.650643588375</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="U20" t="n">
-        <v>330.650643588375</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="V20" t="n">
-        <v>330.650643588375</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="W20" t="n">
-        <v>328.9001008840819</v>
+        <v>328.9001008840823</v>
       </c>
       <c r="X20" t="n">
-        <v>305.0422344737897</v>
+        <v>305.0422344737899</v>
       </c>
       <c r="Y20" t="n">
-        <v>258.4542133930489</v>
+        <v>258.4542133930491</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.613012871767501</v>
+        <v>90.1106501415593</v>
       </c>
       <c r="C21" t="n">
-        <v>6.613012871767501</v>
+        <v>90.1106501415593</v>
       </c>
       <c r="D21" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="E21" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="F21" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="G21" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="H21" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="I21" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J21" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K21" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L21" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="M21" t="n">
-        <v>85.14254072400658</v>
+        <v>85.14254072400669</v>
       </c>
       <c r="N21" t="n">
-        <v>166.9785750121294</v>
+        <v>166.9785750121296</v>
       </c>
       <c r="O21" t="n">
-        <v>248.8146093002522</v>
+        <v>248.8146093002526</v>
       </c>
       <c r="P21" t="n">
-        <v>330.650643588375</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="Q21" t="n">
-        <v>324.5455571408574</v>
+        <v>324.5455571408579</v>
       </c>
       <c r="R21" t="n">
-        <v>324.5455571408574</v>
+        <v>324.5455571408579</v>
       </c>
       <c r="S21" t="n">
-        <v>241.0479198710657</v>
+        <v>324.5455571408579</v>
       </c>
       <c r="T21" t="n">
-        <v>173.6082874113509</v>
+        <v>257.1059246811429</v>
       </c>
       <c r="U21" t="n">
-        <v>90.11065014155918</v>
+        <v>257.1059246811429</v>
       </c>
       <c r="V21" t="n">
-        <v>90.11065014155918</v>
+        <v>257.1059246811429</v>
       </c>
       <c r="W21" t="n">
-        <v>6.613012871767501</v>
+        <v>257.1059246811429</v>
       </c>
       <c r="X21" t="n">
-        <v>6.613012871767501</v>
+        <v>173.6082874113511</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.613012871767501</v>
+        <v>90.1106501415593</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="C22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="D22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="E22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="F22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="G22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="H22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="I22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="M22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="N22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="O22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="P22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="R22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="S22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="T22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="U22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="V22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="W22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="X22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.613012871767501</v>
+        <v>6.61301287176751</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>220.1473307371741</v>
+        <v>220.1473307371738</v>
       </c>
       <c r="C23" t="n">
-        <v>205.9634208051921</v>
+        <v>205.9634208051918</v>
       </c>
       <c r="D23" t="n">
-        <v>204.338437882252</v>
+        <v>204.3384378822518</v>
       </c>
       <c r="E23" t="n">
-        <v>168.6662302932423</v>
+        <v>168.666230293242</v>
       </c>
       <c r="F23" t="n">
-        <v>100.9532776755686</v>
+        <v>100.9532776755679</v>
       </c>
       <c r="G23" t="n">
-        <v>17.45564040577624</v>
+        <v>17.45564040577626</v>
       </c>
       <c r="H23" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="I23" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="J23" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="K23" t="n">
-        <v>36.53358486557395</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="L23" t="n">
-        <v>85.14254072400681</v>
+        <v>55.22196873020038</v>
       </c>
       <c r="M23" t="n">
-        <v>166.9785750121299</v>
+        <v>137.0580030183233</v>
       </c>
       <c r="N23" t="n">
-        <v>248.8146093002529</v>
+        <v>214.5207806827079</v>
       </c>
       <c r="O23" t="n">
-        <v>330.6506435883759</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="P23" t="n">
-        <v>330.6506435883759</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="Q23" t="n">
-        <v>330.6506435883759</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="R23" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883754</v>
       </c>
       <c r="S23" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883754</v>
       </c>
       <c r="T23" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883754</v>
       </c>
       <c r="U23" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883754</v>
       </c>
       <c r="V23" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883754</v>
       </c>
       <c r="W23" t="n">
-        <v>328.9001008840826</v>
+        <v>328.9001008840823</v>
       </c>
       <c r="X23" t="n">
-        <v>305.0422344737904</v>
+        <v>305.0422344737901</v>
       </c>
       <c r="Y23" t="n">
-        <v>258.4542133930496</v>
+        <v>258.4542133930493</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="C24" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="D24" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="E24" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="F24" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="G24" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="H24" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="I24" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="J24" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="K24" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="L24" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="M24" t="n">
-        <v>88.44904715989057</v>
+        <v>85.14254072400671</v>
       </c>
       <c r="N24" t="n">
-        <v>166.9785750121299</v>
+        <v>166.9785750121296</v>
       </c>
       <c r="O24" t="n">
-        <v>248.8146093002529</v>
+        <v>248.8146093002525</v>
       </c>
       <c r="P24" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883754</v>
       </c>
       <c r="Q24" t="n">
-        <v>330.6506435883759</v>
+        <v>324.5455571408578</v>
       </c>
       <c r="R24" t="n">
-        <v>247.153006318584</v>
+        <v>241.047919871066</v>
       </c>
       <c r="S24" t="n">
-        <v>247.153006318584</v>
+        <v>241.047919871066</v>
       </c>
       <c r="T24" t="n">
-        <v>163.6553690487921</v>
+        <v>241.047919871066</v>
       </c>
       <c r="U24" t="n">
-        <v>80.15773177900022</v>
+        <v>157.5502826012743</v>
       </c>
       <c r="V24" t="n">
-        <v>80.15773177900022</v>
+        <v>157.5502826012743</v>
       </c>
       <c r="W24" t="n">
-        <v>80.15773177900022</v>
+        <v>74.05264533148248</v>
       </c>
       <c r="X24" t="n">
-        <v>80.15773177900022</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="C25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="D25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="E25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="F25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="G25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="H25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="I25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="J25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="K25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="L25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="M25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="N25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="O25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="P25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="R25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="S25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="T25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="U25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="V25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="W25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="X25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.613012871767519</v>
+        <v>6.613012871767509</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.989143861833</v>
+        <v>1024.989143861832</v>
       </c>
       <c r="C26" t="n">
-        <v>886.241650212354</v>
+        <v>886.2416502123535</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0530835719167</v>
+        <v>760.0530835719165</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8172922654099</v>
+        <v>599.8172922654098</v>
       </c>
       <c r="F26" t="n">
         <v>407.5407559302392</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4795349429505</v>
+        <v>199.4795349429504</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07332369144461</v>
+        <v>64.07332369144456</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09517858874313</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="J26" t="n">
         <v>171.8138854154936</v>
       </c>
       <c r="K26" t="n">
-        <v>377.39293892921</v>
+        <v>377.3929389292101</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7189186691554</v>
+        <v>636.7189186691555</v>
       </c>
       <c r="M26" t="n">
-        <v>930.3987315707777</v>
+        <v>930.3987315707762</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.578533116675</v>
+        <v>1218.578533116673</v>
       </c>
       <c r="O26" t="n">
-        <v>1465.532102613101</v>
+        <v>1465.5321026131</v>
       </c>
       <c r="P26" t="n">
-        <v>1663.028607199425</v>
+        <v>1663.028607199424</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.223060293146</v>
+        <v>1786.223060293145</v>
       </c>
       <c r="R26" t="n">
         <v>1804.758929437156</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.217396941449</v>
+        <v>1790.217396941448</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.553257162872</v>
+        <v>1780.553257162871</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.872352129445</v>
+        <v>1742.872352129444</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.746791583023</v>
+        <v>1633.746791583022</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.432665161233</v>
+        <v>1507.432665161232</v>
       </c>
       <c r="X26" t="n">
-        <v>1359.011215033443</v>
+        <v>1359.011215033442</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.859610235206</v>
+        <v>1187.859610235205</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>127.1807524895859</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="C27" t="n">
-        <v>36.09517858874313</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="D27" t="n">
-        <v>36.09517858874313</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="E27" t="n">
-        <v>36.09517858874313</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="F27" t="n">
-        <v>36.09517858874313</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09517858874313</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09517858874313</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09517858874313</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09517858874313</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="K27" t="n">
-        <v>75.09223206028358</v>
+        <v>75.09223206028355</v>
       </c>
       <c r="L27" t="n">
         <v>193.8151253226841</v>
@@ -6327,28 +6327,28 @@
         <v>795.6502670868739</v>
       </c>
       <c r="R27" t="n">
-        <v>659.975194740116</v>
+        <v>769.0161772383475</v>
       </c>
       <c r="S27" t="n">
-        <v>466.5704652140791</v>
+        <v>769.0161772383475</v>
       </c>
       <c r="T27" t="n">
-        <v>464.4498782210205</v>
+        <v>766.8955902452889</v>
       </c>
       <c r="U27" t="n">
-        <v>224.8259953109315</v>
+        <v>742.2671403333761</v>
       </c>
       <c r="V27" t="n">
-        <v>196.7417102127419</v>
+        <v>499.1874222370103</v>
       </c>
       <c r="W27" t="n">
-        <v>142.3385739412094</v>
+        <v>229.7888529673016</v>
       </c>
       <c r="X27" t="n">
-        <v>137.826012556082</v>
+        <v>225.2762915821743</v>
       </c>
       <c r="Y27" t="n">
-        <v>127.1807524895859</v>
+        <v>214.6310315156782</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09517858874313</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09517858874313</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09517858874313</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09517858874313</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09517858874313</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09517858874313</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09517858874313</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09517858874313</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="J28" t="n">
-        <v>36.09517858874313</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="K28" t="n">
-        <v>36.09517858874313</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="L28" t="n">
-        <v>36.09517858874313</v>
+        <v>75.55861596032463</v>
       </c>
       <c r="M28" t="n">
-        <v>36.09517858874313</v>
+        <v>75.55861596032463</v>
       </c>
       <c r="N28" t="n">
-        <v>107.7069748523307</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="O28" t="n">
-        <v>107.7069748523307</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="P28" t="n">
-        <v>261.1792922659544</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="Q28" t="n">
-        <v>261.1792922659544</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7419715358039</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="S28" t="n">
-        <v>248.016628209808</v>
+        <v>248.0166282098076</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0136820482061</v>
+        <v>237.0136820482059</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4371339659333</v>
+        <v>160.437133965933</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8477031414328</v>
+        <v>127.8477031414326</v>
       </c>
       <c r="W28" t="n">
-        <v>49.599997665533</v>
+        <v>49.59999766553286</v>
       </c>
       <c r="X28" t="n">
-        <v>40.43436459477741</v>
+        <v>40.43436459477732</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09517858874313</v>
+        <v>36.09517858874311</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6440,22 @@
         <v>1024.989143861833</v>
       </c>
       <c r="C29" t="n">
-        <v>886.241650212354</v>
+        <v>886.2416502123538</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0530835719169</v>
+        <v>760.0530835719165</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8172922654102</v>
+        <v>599.8172922654098</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5407559302395</v>
+        <v>407.5407559302392</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4795349429506</v>
+        <v>199.4795349429503</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07332369144454</v>
+        <v>64.07332369144456</v>
       </c>
       <c r="I29" t="n">
         <v>36.09517858874311</v>
@@ -6485,7 +6485,7 @@
         <v>1786.223060293145</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.758929437155</v>
+        <v>1804.758929437156</v>
       </c>
       <c r="S29" t="n">
         <v>1790.217396941448</v>
@@ -6506,7 +6506,7 @@
         <v>1359.011215033443</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.859610235206</v>
+        <v>1187.859610235205</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.09517858874311</v>
+        <v>225.5074528557794</v>
       </c>
       <c r="C30" t="n">
         <v>36.09517858874311</v>
@@ -6564,28 +6564,28 @@
         <v>795.6502670868739</v>
       </c>
       <c r="R30" t="n">
-        <v>659.975194740116</v>
+        <v>795.6502670868739</v>
       </c>
       <c r="S30" t="n">
-        <v>466.5704652140791</v>
+        <v>795.6502670868739</v>
       </c>
       <c r="T30" t="n">
-        <v>464.4498782210206</v>
+        <v>793.5296800938153</v>
       </c>
       <c r="U30" t="n">
-        <v>224.8259953109315</v>
+        <v>768.9012301819025</v>
       </c>
       <c r="V30" t="n">
-        <v>196.741710212742</v>
+        <v>525.8215120855366</v>
       </c>
       <c r="W30" t="n">
-        <v>142.3385739412096</v>
+        <v>256.4229428158279</v>
       </c>
       <c r="X30" t="n">
-        <v>46.74043865523914</v>
+        <v>251.9103814307006</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.09517858874311</v>
+        <v>241.2651213642046</v>
       </c>
     </row>
     <row r="31">
@@ -6631,13 +6631,13 @@
         <v>36.09517858874311</v>
       </c>
       <c r="N31" t="n">
-        <v>185.5203561027685</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="O31" t="n">
-        <v>185.5203561027685</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="P31" t="n">
-        <v>185.5203561027685</v>
+        <v>189.5674960023669</v>
       </c>
       <c r="Q31" t="n">
         <v>270.7419715358035</v>
@@ -6677,31 +6677,31 @@
         <v>1024.989143861833</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2416502123535</v>
+        <v>886.2416502123543</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0530835719164</v>
+        <v>760.0530835719172</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8172922654097</v>
+        <v>599.8172922654105</v>
       </c>
       <c r="F32" t="n">
-        <v>407.540755930239</v>
+        <v>407.5407559302392</v>
       </c>
       <c r="G32" t="n">
-        <v>199.47953494295</v>
+        <v>199.4795349429504</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07332369144422</v>
+        <v>64.07332369144456</v>
       </c>
       <c r="I32" t="n">
         <v>36.09517858874311</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8138854154937</v>
+        <v>171.8138854154936</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3929389292102</v>
+        <v>377.3929389292101</v>
       </c>
       <c r="L32" t="n">
         <v>636.7189186691556</v>
@@ -6722,7 +6722,7 @@
         <v>1786.223060293145</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.758929437155</v>
+        <v>1804.758929437156</v>
       </c>
       <c r="S32" t="n">
         <v>1790.217396941448</v>
@@ -6731,7 +6731,7 @@
         <v>1780.553257162871</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.872352129444</v>
+        <v>1742.872352129445</v>
       </c>
       <c r="V32" t="n">
         <v>1633.746791583023</v>
@@ -6743,7 +6743,7 @@
         <v>1359.011215033443</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.859610235205</v>
+        <v>1187.859610235206</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>225.5074528557794</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="C33" t="n">
         <v>36.09517858874311</v>
@@ -6801,28 +6801,28 @@
         <v>795.6502670868739</v>
       </c>
       <c r="R33" t="n">
-        <v>659.975194740116</v>
+        <v>795.6502670868739</v>
       </c>
       <c r="S33" t="n">
-        <v>466.5704652140791</v>
+        <v>602.2455375608371</v>
       </c>
       <c r="T33" t="n">
-        <v>464.4498782210205</v>
+        <v>588.3597373183538</v>
       </c>
       <c r="U33" t="n">
-        <v>439.8214283091078</v>
+        <v>348.7358544082647</v>
       </c>
       <c r="V33" t="n">
-        <v>295.0684105789352</v>
+        <v>320.6515693100752</v>
       </c>
       <c r="W33" t="n">
-        <v>240.6652743074028</v>
+        <v>51.25300004036647</v>
       </c>
       <c r="X33" t="n">
-        <v>236.1527129222754</v>
+        <v>46.74043865523914</v>
       </c>
       <c r="Y33" t="n">
-        <v>225.5074528557794</v>
+        <v>36.09517858874311</v>
       </c>
     </row>
     <row r="34">
@@ -6868,37 +6868,37 @@
         <v>36.09517858874311</v>
       </c>
       <c r="N34" t="n">
-        <v>117.26965412218</v>
+        <v>96.37045088625388</v>
       </c>
       <c r="O34" t="n">
-        <v>117.26965412218</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="P34" t="n">
-        <v>270.7419715358037</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7419715358037</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7419715358037</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0166282098078</v>
+        <v>248.0166282098076</v>
       </c>
       <c r="T34" t="n">
-        <v>237.013682048206</v>
+        <v>237.0136820482059</v>
       </c>
       <c r="U34" t="n">
-        <v>160.4371339659331</v>
+        <v>160.437133965933</v>
       </c>
       <c r="V34" t="n">
-        <v>127.8477031414327</v>
+        <v>127.8477031414326</v>
       </c>
       <c r="W34" t="n">
-        <v>49.59999766553292</v>
+        <v>49.59999766553286</v>
       </c>
       <c r="X34" t="n">
-        <v>40.43436459477735</v>
+        <v>40.43436459477732</v>
       </c>
       <c r="Y34" t="n">
         <v>36.09517858874311</v>
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>856.9281533672757</v>
+        <v>856.9281533672756</v>
       </c>
       <c r="C35" t="n">
-        <v>741.2446565210523</v>
+        <v>741.2446565210522</v>
       </c>
       <c r="D35" t="n">
-        <v>638.1200866838708</v>
+        <v>638.1200866838705</v>
       </c>
       <c r="E35" t="n">
-        <v>500.9482921806198</v>
+        <v>500.9482921806194</v>
       </c>
       <c r="F35" t="n">
-        <v>331.7357526487048</v>
+        <v>331.7357526487044</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7385284646715</v>
+        <v>146.7385284646712</v>
       </c>
       <c r="H35" t="n">
-        <v>34.39631401642138</v>
+        <v>34.3963140164214</v>
       </c>
       <c r="I35" t="n">
         <v>29.4821657169756</v>
       </c>
       <c r="J35" t="n">
-        <v>187.805895810597</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="K35" t="n">
-        <v>415.9899725911844</v>
+        <v>257.666242497563</v>
       </c>
       <c r="L35" t="n">
-        <v>697.9209755980007</v>
+        <v>306.2751983559958</v>
       </c>
       <c r="M35" t="n">
-        <v>780.8837646181089</v>
+        <v>527.8638640589281</v>
       </c>
       <c r="N35" t="n">
-        <v>858.3465422824935</v>
+        <v>838.6486888716961</v>
       </c>
       <c r="O35" t="n">
-        <v>1127.905135045791</v>
+        <v>1108.207281634993</v>
       </c>
       <c r="P35" t="n">
-        <v>1348.006662898986</v>
+        <v>1328.308809488189</v>
       </c>
       <c r="Q35" t="n">
-        <v>1411.481326300183</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="R35" t="n">
-        <v>1452.622218711065</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="S35" t="n">
-        <v>1460.975085978892</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="T35" t="n">
         <v>1474.10828584878</v>
@@ -6974,13 +6974,13 @@
         <v>1373.429813875443</v>
       </c>
       <c r="W35" t="n">
-        <v>1270.179684256908</v>
+        <v>1270.179684256909</v>
       </c>
       <c r="X35" t="n">
         <v>1144.822230932375</v>
       </c>
       <c r="Y35" t="n">
-        <v>996.7346229373926</v>
+        <v>996.7346229373925</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.4821657169756</v>
+        <v>243.4977185435087</v>
       </c>
       <c r="C36" t="n">
-        <v>29.4821657169756</v>
+        <v>54.08544427647243</v>
       </c>
       <c r="D36" t="n">
-        <v>29.4821657169756</v>
+        <v>54.08544427647243</v>
       </c>
       <c r="E36" t="n">
-        <v>29.4821657169756</v>
+        <v>54.08544427647243</v>
       </c>
       <c r="F36" t="n">
         <v>29.4821657169756</v>
@@ -7041,25 +7041,25 @@
         <v>653.3621818683484</v>
       </c>
       <c r="S36" t="n">
-        <v>522.5814963815102</v>
+        <v>459.9574523423116</v>
       </c>
       <c r="T36" t="n">
-        <v>305.4654763902753</v>
+        <v>459.9574523423116</v>
       </c>
       <c r="U36" t="n">
-        <v>65.84159348018625</v>
+        <v>458.3929992336545</v>
       </c>
       <c r="V36" t="n">
-        <v>60.82130518525231</v>
+        <v>453.3727109387206</v>
       </c>
       <c r="W36" t="n">
-        <v>29.4821657169756</v>
+        <v>422.0335714704438</v>
       </c>
       <c r="X36" t="n">
-        <v>29.4821657169756</v>
+        <v>422.0335714704438</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.4821657169756</v>
+        <v>422.0335714704438</v>
       </c>
     </row>
     <row r="37">
@@ -7102,34 +7102,34 @@
         <v>29.4821657169756</v>
       </c>
       <c r="M37" t="n">
-        <v>29.4821657169756</v>
+        <v>115.5361571531612</v>
       </c>
       <c r="N37" t="n">
-        <v>29.4821657169756</v>
+        <v>115.5361571531612</v>
       </c>
       <c r="O37" t="n">
-        <v>115.2042428800988</v>
+        <v>115.5361571531612</v>
       </c>
       <c r="P37" t="n">
-        <v>115.2042428800988</v>
+        <v>115.5361571531612</v>
       </c>
       <c r="Q37" t="n">
-        <v>115.2042428800988</v>
+        <v>115.5361571531612</v>
       </c>
       <c r="R37" t="n">
-        <v>147.3719454168193</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="S37" t="n">
-        <v>147.7038596898816</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="T37" t="n">
-        <v>147.7038596898816</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="U37" t="n">
-        <v>94.19130841086444</v>
+        <v>94.19130841086448</v>
       </c>
       <c r="V37" t="n">
-        <v>84.66587438961973</v>
+        <v>84.66587438961974</v>
       </c>
       <c r="W37" t="n">
         <v>29.4821657169756</v>
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>856.9281533672752</v>
+        <v>856.9281533672757</v>
       </c>
       <c r="C38" t="n">
-        <v>741.2446565210518</v>
+        <v>741.2446565210523</v>
       </c>
       <c r="D38" t="n">
-        <v>638.1200866838701</v>
+        <v>638.1200866838708</v>
       </c>
       <c r="E38" t="n">
-        <v>500.948292180619</v>
+        <v>500.9482921806198</v>
       </c>
       <c r="F38" t="n">
-        <v>331.735752648704</v>
+        <v>331.7357526487048</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7385284646707</v>
+        <v>146.7385284646715</v>
       </c>
       <c r="H38" t="n">
-        <v>34.39631401642144</v>
+        <v>34.39631401642137</v>
       </c>
       <c r="I38" t="n">
         <v>29.4821657169756</v>
       </c>
       <c r="J38" t="n">
-        <v>187.8058958105969</v>
+        <v>187.805895810597</v>
       </c>
       <c r="K38" t="n">
-        <v>187.8058958105969</v>
+        <v>254.4954561118257</v>
       </c>
       <c r="L38" t="n">
-        <v>469.7368988174132</v>
+        <v>536.426459118642</v>
       </c>
       <c r="M38" t="n">
-        <v>786.0217349859047</v>
+        <v>852.7112952871337</v>
       </c>
       <c r="N38" t="n">
-        <v>1030.829843609198</v>
+        <v>1163.496120099902</v>
       </c>
       <c r="O38" t="n">
-        <v>1067.066389224112</v>
+        <v>1199.732665714816</v>
       </c>
       <c r="P38" t="n">
-        <v>1287.167917077307</v>
+        <v>1419.834193568011</v>
       </c>
       <c r="Q38" t="n">
-        <v>1432.967393437899</v>
+        <v>1419.834193568011</v>
       </c>
       <c r="R38" t="n">
-        <v>1474.10828584878</v>
+        <v>1460.975085978892</v>
       </c>
       <c r="S38" t="n">
-        <v>1474.10828584878</v>
+        <v>1460.975085978892</v>
       </c>
       <c r="T38" t="n">
         <v>1474.10828584878</v>
@@ -7214,10 +7214,10 @@
         <v>1270.179684256908</v>
       </c>
       <c r="X38" t="n">
-        <v>1144.822230932374</v>
+        <v>1144.822230932375</v>
       </c>
       <c r="Y38" t="n">
-        <v>996.734622937392</v>
+        <v>996.7346229373926</v>
       </c>
     </row>
     <row r="39">
@@ -7272,25 +7272,25 @@
         <v>795.1423406626241</v>
       </c>
       <c r="Q39" t="n">
-        <v>795.1423406626241</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="R39" t="n">
-        <v>760.6409261829422</v>
+        <v>653.3621818683484</v>
       </c>
       <c r="S39" t="n">
-        <v>760.6409261829422</v>
+        <v>459.9574523423116</v>
       </c>
       <c r="T39" t="n">
-        <v>543.5249061917073</v>
+        <v>459.9574523423116</v>
       </c>
       <c r="U39" t="n">
-        <v>303.9010232816183</v>
+        <v>458.3929992336546</v>
       </c>
       <c r="V39" t="n">
-        <v>298.8807349866843</v>
+        <v>453.3727109387206</v>
       </c>
       <c r="W39" t="n">
-        <v>29.4821657169756</v>
+        <v>248.9901601002792</v>
       </c>
       <c r="X39" t="n">
         <v>29.4821657169756</v>
@@ -7327,46 +7327,46 @@
         <v>29.4821657169756</v>
       </c>
       <c r="I40" t="n">
-        <v>99.76117286311774</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J40" t="n">
-        <v>99.76117286311774</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="K40" t="n">
-        <v>103.3832071462142</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="L40" t="n">
-        <v>103.3832071462142</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="M40" t="n">
-        <v>103.3832071462142</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="N40" t="n">
-        <v>103.3832071462142</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="O40" t="n">
-        <v>103.3832071462142</v>
+        <v>147.7038596898816</v>
       </c>
       <c r="P40" t="n">
-        <v>103.3832071462142</v>
+        <v>147.7038596898816</v>
       </c>
       <c r="Q40" t="n">
-        <v>103.3832071462142</v>
+        <v>147.7038596898816</v>
       </c>
       <c r="R40" t="n">
-        <v>135.5509096829347</v>
+        <v>147.7038596898816</v>
       </c>
       <c r="S40" t="n">
-        <v>135.8828239559969</v>
+        <v>147.7038596898816</v>
       </c>
       <c r="T40" t="n">
-        <v>147.7038596898818</v>
+        <v>147.7038596898816</v>
       </c>
       <c r="U40" t="n">
-        <v>94.19130841086455</v>
+        <v>94.19130841086442</v>
       </c>
       <c r="V40" t="n">
-        <v>84.66587438961979</v>
+        <v>84.66587438961972</v>
       </c>
       <c r="W40" t="n">
         <v>29.4821657169756</v>
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>856.9281533672755</v>
+        <v>856.9281533672763</v>
       </c>
       <c r="C41" t="n">
-        <v>741.2446565210521</v>
+        <v>741.244656521053</v>
       </c>
       <c r="D41" t="n">
-        <v>638.1200866838706</v>
+        <v>638.1200866838715</v>
       </c>
       <c r="E41" t="n">
-        <v>500.9482921806194</v>
+        <v>500.9482921806205</v>
       </c>
       <c r="F41" t="n">
-        <v>331.7357526487044</v>
+        <v>331.7357526487056</v>
       </c>
       <c r="G41" t="n">
-        <v>146.7385284646716</v>
+        <v>146.7385284646721</v>
       </c>
       <c r="H41" t="n">
-        <v>34.39631401642144</v>
+        <v>34.39631401642133</v>
       </c>
       <c r="I41" t="n">
         <v>29.4821657169756</v>
       </c>
       <c r="J41" t="n">
-        <v>187.8058958105969</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="K41" t="n">
-        <v>415.9899725911843</v>
+        <v>257.6662424975631</v>
       </c>
       <c r="L41" t="n">
-        <v>464.5989284496171</v>
+        <v>539.5972455043795</v>
       </c>
       <c r="M41" t="n">
-        <v>780.8837646181087</v>
+        <v>855.8820816728712</v>
       </c>
       <c r="N41" t="n">
-        <v>1091.668589430877</v>
+        <v>1141.922733536885</v>
       </c>
       <c r="O41" t="n">
-        <v>1127.905135045791</v>
+        <v>1411.481326300182</v>
       </c>
       <c r="P41" t="n">
-        <v>1348.006662898986</v>
+        <v>1411.481326300182</v>
       </c>
       <c r="Q41" t="n">
-        <v>1411.481326300183</v>
+        <v>1411.481326300182</v>
       </c>
       <c r="R41" t="n">
-        <v>1452.622218711065</v>
+        <v>1452.622218711064</v>
       </c>
       <c r="S41" t="n">
         <v>1460.975085978892</v>
@@ -7454,7 +7454,7 @@
         <v>1144.822230932375</v>
       </c>
       <c r="Y41" t="n">
-        <v>996.7346229373925</v>
+        <v>996.7346229373931</v>
       </c>
     </row>
     <row r="42">
@@ -7509,31 +7509,31 @@
         <v>795.1423406626241</v>
       </c>
       <c r="Q42" t="n">
-        <v>789.0372542151064</v>
+        <v>795.1423406626241</v>
       </c>
       <c r="R42" t="n">
-        <v>789.0372542151064</v>
+        <v>795.1423406626241</v>
       </c>
       <c r="S42" t="n">
-        <v>789.0372542151064</v>
+        <v>795.1423406626241</v>
       </c>
       <c r="T42" t="n">
-        <v>789.0372542151064</v>
+        <v>578.0263206713892</v>
       </c>
       <c r="U42" t="n">
-        <v>549.4133713050173</v>
+        <v>338.4024377613001</v>
       </c>
       <c r="V42" t="n">
-        <v>544.3930830100834</v>
+        <v>95.3227196649342</v>
       </c>
       <c r="W42" t="n">
-        <v>427.5260130272143</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="X42" t="n">
-        <v>208.0180186439107</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="Y42" t="n">
-        <v>208.0180186439107</v>
+        <v>29.4821657169756</v>
       </c>
     </row>
     <row r="43">
@@ -7582,28 +7582,28 @@
         <v>29.4821657169756</v>
       </c>
       <c r="O43" t="n">
-        <v>147.7038596898818</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="P43" t="n">
-        <v>147.7038596898818</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="Q43" t="n">
-        <v>147.7038596898818</v>
+        <v>137.3088044168815</v>
       </c>
       <c r="R43" t="n">
-        <v>147.7038596898818</v>
+        <v>147.7038596898814</v>
       </c>
       <c r="S43" t="n">
-        <v>147.7038596898818</v>
+        <v>147.7038596898814</v>
       </c>
       <c r="T43" t="n">
-        <v>147.7038596898818</v>
+        <v>147.7038596898814</v>
       </c>
       <c r="U43" t="n">
-        <v>94.19130841086455</v>
+        <v>94.19130841086431</v>
       </c>
       <c r="V43" t="n">
-        <v>84.66587438961979</v>
+        <v>84.66587438961966</v>
       </c>
       <c r="W43" t="n">
         <v>29.4821657169756</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>856.9281533672756</v>
+        <v>856.9281533672752</v>
       </c>
       <c r="C44" t="n">
-        <v>741.2446565210521</v>
+        <v>741.2446565210519</v>
       </c>
       <c r="D44" t="n">
-        <v>638.1200866838707</v>
+        <v>638.1200866838703</v>
       </c>
       <c r="E44" t="n">
-        <v>500.9482921806195</v>
+        <v>500.9482921806193</v>
       </c>
       <c r="F44" t="n">
-        <v>331.7357526487044</v>
+        <v>331.7357526487042</v>
       </c>
       <c r="G44" t="n">
         <v>146.7385284646717</v>
       </c>
       <c r="H44" t="n">
-        <v>34.3963140164215</v>
+        <v>34.39631401642147</v>
       </c>
       <c r="I44" t="n">
         <v>29.4821657169756</v>
@@ -7649,31 +7649,31 @@
         <v>29.4821657169756</v>
       </c>
       <c r="K44" t="n">
-        <v>257.6662424975629</v>
+        <v>257.666242497563</v>
       </c>
       <c r="L44" t="n">
-        <v>539.5972455043791</v>
+        <v>349.0256369832006</v>
       </c>
       <c r="M44" t="n">
-        <v>698.5589516587153</v>
+        <v>665.3104731516921</v>
       </c>
       <c r="N44" t="n">
-        <v>776.0217293230999</v>
+        <v>976.09529796446</v>
       </c>
       <c r="O44" t="n">
-        <v>1045.580322086397</v>
+        <v>1245.653890727757</v>
       </c>
       <c r="P44" t="n">
-        <v>1265.681849939592</v>
+        <v>1465.755418580952</v>
       </c>
       <c r="Q44" t="n">
-        <v>1411.481326300183</v>
+        <v>1465.755418580952</v>
       </c>
       <c r="R44" t="n">
-        <v>1452.622218711065</v>
+        <v>1465.755418580952</v>
       </c>
       <c r="S44" t="n">
-        <v>1460.975085978893</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="T44" t="n">
         <v>1474.10828584878</v>
@@ -7685,13 +7685,13 @@
         <v>1373.429813875443</v>
       </c>
       <c r="W44" t="n">
-        <v>1270.179684256909</v>
+        <v>1270.179684256908</v>
       </c>
       <c r="X44" t="n">
-        <v>1144.822230932375</v>
+        <v>1144.822230932374</v>
       </c>
       <c r="Y44" t="n">
-        <v>996.7346229373926</v>
+        <v>996.7346229373921</v>
       </c>
     </row>
     <row r="45">
@@ -7749,22 +7749,22 @@
         <v>795.1423406626241</v>
       </c>
       <c r="R45" t="n">
-        <v>795.1423406626241</v>
+        <v>659.4672683158661</v>
       </c>
       <c r="S45" t="n">
-        <v>795.1423406626241</v>
+        <v>543.5249061917074</v>
       </c>
       <c r="T45" t="n">
-        <v>578.0263206713892</v>
+        <v>543.5249061917074</v>
       </c>
       <c r="U45" t="n">
-        <v>338.4024377613001</v>
+        <v>541.9604530830502</v>
       </c>
       <c r="V45" t="n">
-        <v>280.3292995685561</v>
+        <v>298.8807349866843</v>
       </c>
       <c r="W45" t="n">
-        <v>248.9901601002792</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="X45" t="n">
         <v>29.4821657169756</v>
@@ -7813,34 +7813,34 @@
         <v>29.4821657169756</v>
       </c>
       <c r="M46" t="n">
-        <v>103.3832071462146</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="N46" t="n">
-        <v>103.3832071462146</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="O46" t="n">
-        <v>103.3832071462146</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="P46" t="n">
-        <v>103.3832071462146</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.3832071462146</v>
+        <v>137.3088044168814</v>
       </c>
       <c r="R46" t="n">
-        <v>135.550909682935</v>
+        <v>137.3088044168814</v>
       </c>
       <c r="S46" t="n">
-        <v>135.8828239559971</v>
+        <v>137.3088044168814</v>
       </c>
       <c r="T46" t="n">
-        <v>147.7038596898819</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="U46" t="n">
-        <v>94.19130841086466</v>
+        <v>94.19130841086459</v>
       </c>
       <c r="V46" t="n">
-        <v>84.66587438961984</v>
+        <v>84.6658743896198</v>
       </c>
       <c r="W46" t="n">
         <v>29.4821657169756</v>
@@ -8775,16 +8775,16 @@
         <v>120.3824293501763</v>
       </c>
       <c r="M12" t="n">
-        <v>199.2893595226797</v>
+        <v>195.9494540318882</v>
       </c>
       <c r="N12" t="n">
-        <v>181.2801078349632</v>
+        <v>184.620013325755</v>
       </c>
       <c r="O12" t="n">
-        <v>203.3156892245182</v>
+        <v>203.3156892245183</v>
       </c>
       <c r="P12" t="n">
-        <v>203.3219397723607</v>
+        <v>203.3219397723608</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9012,16 +9012,16 @@
         <v>120.3824293501763</v>
       </c>
       <c r="M15" t="n">
-        <v>199.2893595226797</v>
+        <v>195.9494540318882</v>
       </c>
       <c r="N15" t="n">
-        <v>184.6200133257549</v>
+        <v>184.620013325755</v>
       </c>
       <c r="O15" t="n">
-        <v>199.9757837337265</v>
+        <v>203.3156892245183</v>
       </c>
       <c r="P15" t="n">
-        <v>203.3219397723607</v>
+        <v>203.3219397723608</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9249,16 +9249,16 @@
         <v>120.3824293501763</v>
       </c>
       <c r="M18" t="n">
-        <v>199.2893595226797</v>
+        <v>195.9494540318882</v>
       </c>
       <c r="N18" t="n">
-        <v>181.2801078349632</v>
+        <v>184.620013325755</v>
       </c>
       <c r="O18" t="n">
-        <v>203.3156892245182</v>
+        <v>203.3156892245183</v>
       </c>
       <c r="P18" t="n">
-        <v>203.3219397723607</v>
+        <v>203.3219397723608</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9486,16 +9486,16 @@
         <v>120.3824293501763</v>
       </c>
       <c r="M21" t="n">
-        <v>195.9494540318881</v>
+        <v>195.9494540318882</v>
       </c>
       <c r="N21" t="n">
-        <v>184.6200133257549</v>
+        <v>184.620013325755</v>
       </c>
       <c r="O21" t="n">
-        <v>203.3156892245182</v>
+        <v>203.3156892245183</v>
       </c>
       <c r="P21" t="n">
-        <v>203.3219397723607</v>
+        <v>203.3219397723608</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9644,7 +9644,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M23" t="n">
-        <v>290.1466336104413</v>
+        <v>290.1466336104411</v>
       </c>
       <c r="N23" t="n">
         <v>283.4008070189657</v>
@@ -9723,16 +9723,16 @@
         <v>120.3824293501763</v>
       </c>
       <c r="M24" t="n">
-        <v>199.2893595226799</v>
+        <v>195.9494540318882</v>
       </c>
       <c r="N24" t="n">
-        <v>181.2801078349634</v>
+        <v>184.6200133257549</v>
       </c>
       <c r="O24" t="n">
-        <v>203.3156892245184</v>
+        <v>203.3156892245183</v>
       </c>
       <c r="P24" t="n">
-        <v>203.3219397723609</v>
+        <v>203.3219397723608</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>135.6993766064103</v>
+        <v>86.77179527768848</v>
       </c>
       <c r="C11" t="n">
         <v>145.5527131781278</v>
       </c>
       <c r="D11" t="n">
-        <v>133.1193754391762</v>
+        <v>133.1193754391763</v>
       </c>
       <c r="E11" t="n">
-        <v>166.8261278585851</v>
+        <v>166.8261278585852</v>
       </c>
       <c r="F11" t="n">
-        <v>198.5464654369624</v>
+        <v>198.5464654369625</v>
       </c>
       <c r="G11" t="n">
-        <v>214.1733032425595</v>
+        <v>214.1733032425596</v>
       </c>
       <c r="H11" t="n">
-        <v>142.2448436041342</v>
+        <v>59.5821827070404</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>35.891058116818</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>33.5643385090072</v>
+        <v>46.60086172091124</v>
       </c>
       <c r="W11" t="n">
-        <v>50.58101872562207</v>
+        <v>133.2436796227159</v>
       </c>
       <c r="X11" t="n">
-        <v>155.1299300916551</v>
+        <v>155.1299300916552</v>
       </c>
       <c r="Y11" t="n">
-        <v>177.6327832153988</v>
+        <v>177.6327832153989</v>
       </c>
     </row>
     <row r="12">
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.340816169499817</v>
+        <v>1.34081616949979</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.99526198919051</v>
+        <v>2.995261989190482</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>135.6993766064102</v>
+        <v>86.77179527768834</v>
       </c>
       <c r="C14" t="n">
-        <v>145.5527131781278</v>
+        <v>145.5527131781277</v>
       </c>
       <c r="D14" t="n">
         <v>133.1193754391762</v>
       </c>
       <c r="E14" t="n">
-        <v>166.8261278585851</v>
+        <v>166.826127858585</v>
       </c>
       <c r="F14" t="n">
         <v>198.5464654369624</v>
       </c>
       <c r="G14" t="n">
-        <v>214.1733032425595</v>
+        <v>180.4382236741871</v>
       </c>
       <c r="H14" t="n">
         <v>142.2448436041342</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>33.5643385090072</v>
+        <v>116.2269994061009</v>
       </c>
       <c r="W14" t="n">
-        <v>50.58101872562207</v>
+        <v>50.5810187256219</v>
       </c>
       <c r="X14" t="n">
-        <v>155.1299300916551</v>
+        <v>155.129930091655</v>
       </c>
       <c r="Y14" t="n">
         <v>177.6327832153988</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.340816169499819</v>
+        <v>1.340816169499648</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.99526198919051</v>
+        <v>2.99526198919034</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1447613.359822182</v>
+        <v>1447613.359822183</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1664138.164538782</v>
+        <v>1664138.164538781</v>
       </c>
     </row>
     <row r="10">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272100.1210438668</v>
+        <v>272100.1210438667</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-10</v>
       </c>
       <c r="G3" t="n">
         <v>105208.5138763724</v>
@@ -26390,19 +26390,19 @@
         <v>161490.7661438377</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5409215677243e-11</v>
+        <v>1.10818431354486e-10</v>
       </c>
       <c r="L3" t="n">
         <v>105208.5138763724</v>
       </c>
       <c r="M3" t="n">
-        <v>18266.68546817855</v>
+        <v>18266.6854681785</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>65067.86905818313</v>
+        <v>65067.86905818317</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>498984.6759847553</v>
       </c>
       <c r="E4" t="n">
-        <v>393609.1285253837</v>
+        <v>393609.1285253836</v>
       </c>
       <c r="F4" t="n">
         <v>393609.1285253837</v>
       </c>
       <c r="G4" t="n">
-        <v>464139.4248418897</v>
+        <v>464139.4248418898</v>
       </c>
       <c r="H4" t="n">
         <v>464139.4248418898</v>
@@ -26445,7 +26445,7 @@
         <v>465554.6357675862</v>
       </c>
       <c r="L4" t="n">
-        <v>465554.6357675861</v>
+        <v>465554.6357675862</v>
       </c>
       <c r="M4" t="n">
         <v>465183.335866207</v>
@@ -26457,7 +26457,7 @@
         <v>465183.335866207</v>
       </c>
       <c r="P4" t="n">
-        <v>465183.3358662069</v>
+        <v>465183.335866207</v>
       </c>
     </row>
     <row r="5">
@@ -26479,34 +26479,34 @@
         <v>24501.91760808066</v>
       </c>
       <c r="F5" t="n">
-        <v>24501.91760808066</v>
+        <v>24501.91760808067</v>
       </c>
       <c r="G5" t="n">
-        <v>35557.88579942159</v>
+        <v>35557.8857994216</v>
       </c>
       <c r="H5" t="n">
-        <v>35557.8857994216</v>
+        <v>35557.88579942161</v>
       </c>
       <c r="I5" t="n">
-        <v>35557.88579942162</v>
+        <v>35557.88579942161</v>
       </c>
       <c r="J5" t="n">
         <v>47597.11518397227</v>
       </c>
       <c r="K5" t="n">
-        <v>47597.11518397226</v>
+        <v>47597.11518397227</v>
       </c>
       <c r="L5" t="n">
-        <v>47597.11518397226</v>
+        <v>47597.11518397227</v>
       </c>
       <c r="M5" t="n">
+        <v>44490.80287720932</v>
+      </c>
+      <c r="N5" t="n">
         <v>44490.80287720933</v>
       </c>
-      <c r="N5" t="n">
-        <v>44490.80287720932</v>
-      </c>
       <c r="O5" t="n">
-        <v>44490.80287720932</v>
+        <v>44490.80287720933</v>
       </c>
       <c r="P5" t="n">
         <v>44490.80287720932</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-532612.2759847554</v>
+        <v>-532616.7423689605</v>
       </c>
       <c r="C6" t="n">
-        <v>-532612.2759847554</v>
+        <v>-532616.7423689605</v>
       </c>
       <c r="D6" t="n">
-        <v>-532612.2759847554</v>
+        <v>-532616.7423689605</v>
       </c>
       <c r="E6" t="n">
-        <v>-690211.1671773312</v>
+        <v>-690520.4883269261</v>
       </c>
       <c r="F6" t="n">
-        <v>-418111.0461334643</v>
+        <v>-418420.3672830596</v>
       </c>
       <c r="G6" t="n">
         <v>-604905.8245176837</v>
       </c>
       <c r="H6" t="n">
-        <v>-499697.3106413114</v>
+        <v>-499697.3106413115</v>
       </c>
       <c r="I6" t="n">
-        <v>-499697.3106413114</v>
+        <v>-499697.3106413113</v>
       </c>
       <c r="J6" t="n">
-        <v>-674642.5170953963</v>
+        <v>-674642.5170953962</v>
       </c>
       <c r="K6" t="n">
-        <v>-513151.7509515585</v>
+        <v>-513151.7509515586</v>
       </c>
       <c r="L6" t="n">
         <v>-618360.2648279308</v>
@@ -26561,7 +26561,7 @@
         <v>-574742.0078015996</v>
       </c>
       <c r="P6" t="n">
-        <v>-509674.1387434162</v>
+        <v>-509674.1387434163</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="F2" t="n">
         <v>204.6527842030511</v>
@@ -26722,10 +26722,10 @@
         <v>235.6788355034176</v>
       </c>
       <c r="O2" t="n">
+        <v>235.6788355034177</v>
+      </c>
+      <c r="P2" t="n">
         <v>235.6788355034176</v>
-      </c>
-      <c r="P2" t="n">
-        <v>235.6788355034175</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="F4" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="G4" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="H4" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="I4" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709386</v>
       </c>
       <c r="J4" t="n">
-        <v>451.1897323592891</v>
+        <v>451.1897323592889</v>
       </c>
       <c r="K4" t="n">
-        <v>451.1897323592888</v>
+        <v>451.1897323592889</v>
       </c>
       <c r="L4" t="n">
-        <v>451.1897323592888</v>
+        <v>451.1897323592889</v>
       </c>
       <c r="M4" t="n">
-        <v>368.5270714621951</v>
+        <v>368.527071462195</v>
       </c>
       <c r="N4" t="n">
-        <v>368.5270714621951</v>
+        <v>368.527071462195</v>
       </c>
       <c r="O4" t="n">
-        <v>368.5270714621951</v>
+        <v>368.527071462195</v>
       </c>
       <c r="P4" t="n">
-        <v>368.5270714621951</v>
+        <v>368.527071462195</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>131.5106423454655</v>
+        <v>131.5106423454654</v>
       </c>
       <c r="H2" t="n">
         <v>5.684341886080801e-14</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.33483632272893</v>
+        <v>81.3348363227289</v>
       </c>
       <c r="K2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>1.385230391931075e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>131.5106423454655</v>
+        <v>131.5106423454654</v>
       </c>
       <c r="M2" t="n">
-        <v>22.83335683522319</v>
+        <v>22.83335683522313</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>81.3348363227289</v>
+        <v>81.33483632272896</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>368.5270714621951</v>
+        <v>368.527071462195</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>131.5106423454655</v>
+        <v>131.5106423454654</v>
       </c>
       <c r="M2" t="n">
         <v>5.684341886080801e-14</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.33483632272893</v>
+        <v>81.3348363227289</v>
       </c>
       <c r="P2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>1.385230391931075e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="C11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="D11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="E11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="F11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="G11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="H11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="I11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="J11" t="n">
         <v>75.75587581289102</v>
       </c>
       <c r="K11" t="n">
-        <v>5.189869058379848</v>
+        <v>5.189869058379841</v>
       </c>
       <c r="L11" t="n">
-        <v>33.56270548453531</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>4.417430933068957</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>32.18977839778447</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.35405989412962</v>
+        <v>94.05438038984045</v>
       </c>
       <c r="Q11" t="n">
         <v>88.40663715938581</v>
       </c>
       <c r="R11" t="n">
-        <v>204.6527842030511</v>
+        <v>194.1223785227292</v>
       </c>
       <c r="S11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="T11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="U11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="V11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="W11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="X11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
     </row>
     <row r="12">
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.044035583042479</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R12" t="n">
-        <v>134.3183216232903</v>
+        <v>51.65566072619646</v>
       </c>
       <c r="S12" t="n">
-        <v>191.4706822307765</v>
+        <v>146.2534539614766</v>
       </c>
       <c r="T12" t="n">
-        <v>132.2821988942288</v>
+        <v>204.652784203051</v>
       </c>
       <c r="U12" t="n">
-        <v>154.5649831838944</v>
+        <v>204.652784203051</v>
       </c>
       <c r="V12" t="n">
-        <v>178.620419841503</v>
+        <v>204.652784203051</v>
       </c>
       <c r="W12" t="n">
-        <v>204.6527842030511</v>
+        <v>184.0419226799177</v>
       </c>
       <c r="X12" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="Y12" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
     </row>
     <row r="13">
@@ -28275,46 +28275,46 @@
         <v>66.40014143752288</v>
       </c>
       <c r="L13" t="n">
-        <v>114.0085004530141</v>
+        <v>31.34583955592036</v>
       </c>
       <c r="M13" t="n">
-        <v>24.36707598317781</v>
+        <v>107.0297368802717</v>
       </c>
       <c r="N13" t="n">
-        <v>98.35323494359244</v>
+        <v>98.35323494359255</v>
       </c>
       <c r="O13" t="n">
-        <v>36.71262952723531</v>
+        <v>83.13710474317224</v>
       </c>
       <c r="P13" t="n">
-        <v>104.2474110420868</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q13" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="R13" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="S13" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="T13" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="U13" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="V13" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="W13" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="X13" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
     </row>
     <row r="14">
@@ -28348,10 +28348,10 @@
         <v>204.6527842030511</v>
       </c>
       <c r="J14" t="n">
-        <v>75.75587581289102</v>
+        <v>156.4561963086019</v>
       </c>
       <c r="K14" t="n">
-        <v>29.29969430487066</v>
+        <v>5.189869058379841</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28363,16 +28363,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>46.06008956889791</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.35405989412962</v>
+        <v>13.35405989412961</v>
       </c>
       <c r="Q14" t="n">
         <v>88.40663715938581</v>
       </c>
       <c r="R14" t="n">
-        <v>204.6527842030511</v>
+        <v>194.1223785227292</v>
       </c>
       <c r="S14" t="n">
         <v>204.6527842030511</v>
@@ -28454,22 +28454,22 @@
         <v>134.3183216232903</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4706822307765</v>
+        <v>108.8080213336826</v>
       </c>
       <c r="T15" t="n">
-        <v>132.2821988942288</v>
+        <v>191.5352541784024</v>
       </c>
       <c r="U15" t="n">
         <v>204.6527842030511</v>
       </c>
       <c r="V15" t="n">
+        <v>157.9862600183084</v>
+      </c>
+      <c r="W15" t="n">
         <v>204.6527842030511</v>
       </c>
-      <c r="W15" t="n">
-        <v>184.0419226799178</v>
-      </c>
       <c r="X15" t="n">
-        <v>155.187515928522</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="Y15" t="n">
         <v>204.6527842030511</v>
@@ -28500,31 +28500,31 @@
         <v>168.695353780268</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7761987305484</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="I16" t="n">
         <v>164.6899393962033</v>
       </c>
       <c r="J16" t="n">
-        <v>119.8563324981777</v>
+        <v>202.5189933952716</v>
       </c>
       <c r="K16" t="n">
-        <v>149.0628023346166</v>
+        <v>66.40014143752288</v>
       </c>
       <c r="L16" t="n">
         <v>31.34583955592036</v>
       </c>
       <c r="M16" t="n">
-        <v>107.0297368802716</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N16" t="n">
-        <v>57.34213373154634</v>
+        <v>98.35323494359255</v>
       </c>
       <c r="O16" t="n">
-        <v>119.3752904243291</v>
+        <v>39.48760373977976</v>
       </c>
       <c r="P16" t="n">
-        <v>57.82293582615034</v>
+        <v>140.4855967232442</v>
       </c>
       <c r="Q16" t="n">
         <v>126.7630388368461</v>
@@ -28588,7 +28588,7 @@
         <v>75.75587581289102</v>
       </c>
       <c r="K17" t="n">
-        <v>5.189869058379848</v>
+        <v>5.189869058379841</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,25 +28603,25 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.35405989412962</v>
+        <v>13.35405989412961</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.40663715938581</v>
+        <v>153.8233147157321</v>
       </c>
       <c r="R17" t="n">
-        <v>194.1223785227293</v>
+        <v>194.1223785227292</v>
       </c>
       <c r="S17" t="n">
         <v>227.241595838945</v>
       </c>
       <c r="T17" t="n">
-        <v>303.113297544696</v>
+        <v>222.4129770489855</v>
       </c>
       <c r="U17" t="n">
         <v>250.1495746512867</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="W17" t="n">
         <v>336.1634265485166</v>
@@ -28685,22 +28685,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R18" t="n">
-        <v>51.65566072619657</v>
+        <v>51.65566072619646</v>
       </c>
       <c r="S18" t="n">
-        <v>191.4706822307765</v>
+        <v>108.8080213336826</v>
       </c>
       <c r="T18" t="n">
-        <v>148.1796236562048</v>
+        <v>214.9448597913225</v>
       </c>
       <c r="U18" t="n">
-        <v>154.5649831838944</v>
+        <v>237.2276440809881</v>
       </c>
       <c r="V18" t="n">
-        <v>157.9862600183085</v>
+        <v>157.9862600183084</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>150.5750144158654</v>
       </c>
     </row>
     <row r="19">
@@ -28752,7 +28752,7 @@
         <v>31.34583955592036</v>
       </c>
       <c r="M19" t="n">
-        <v>24.36707598317781</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N19" t="n">
         <v>15.69057404649868</v>
@@ -28825,7 +28825,7 @@
         <v>75.75587581289102</v>
       </c>
       <c r="K20" t="n">
-        <v>5.189869058379848</v>
+        <v>5.189869058379841</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28837,19 +28837,19 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>46.06008956889801</v>
       </c>
       <c r="P20" t="n">
-        <v>13.35405989412962</v>
+        <v>13.35405989412961</v>
       </c>
       <c r="Q20" t="n">
         <v>88.40663715938581</v>
       </c>
       <c r="R20" t="n">
-        <v>194.1223785227293</v>
+        <v>194.1223785227292</v>
       </c>
       <c r="S20" t="n">
-        <v>307.9419163346555</v>
+        <v>261.8818267657578</v>
       </c>
       <c r="T20" t="n">
         <v>222.4129770489855</v>
@@ -28883,7 +28883,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>76.50965417948467</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28928,25 +28928,25 @@
         <v>134.3183216232903</v>
       </c>
       <c r="S21" t="n">
-        <v>108.8080213336827</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T21" t="n">
         <v>148.1796236562048</v>
       </c>
       <c r="U21" t="n">
-        <v>154.5649831838944</v>
+        <v>237.2276440809881</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>184.0419226799178</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>134.6502535423767</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>140.7216252369317</v>
       </c>
     </row>
     <row r="22">
@@ -28989,7 +28989,7 @@
         <v>31.34583955592036</v>
       </c>
       <c r="M22" t="n">
-        <v>24.36707598317781</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N22" t="n">
         <v>15.69057404649868</v>
@@ -29062,7 +29062,7 @@
         <v>75.75587581289102</v>
       </c>
       <c r="K23" t="n">
-        <v>35.41266905212372</v>
+        <v>5.189869058379841</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,19 +29071,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>4.417430933069184</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>46.06008956889814</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.35405989412962</v>
+        <v>13.35405989412961</v>
       </c>
       <c r="Q23" t="n">
         <v>88.40663715938581</v>
       </c>
       <c r="R23" t="n">
-        <v>194.1223785227293</v>
+        <v>274.82269901844</v>
       </c>
       <c r="S23" t="n">
         <v>227.241595838945</v>
@@ -29159,31 +29159,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.044035583042479</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>51.65566072619634</v>
+        <v>51.65566072619647</v>
       </c>
       <c r="S24" t="n">
         <v>191.4706822307765</v>
       </c>
       <c r="T24" t="n">
-        <v>132.2821988942285</v>
+        <v>214.9448597913225</v>
       </c>
       <c r="U24" t="n">
-        <v>154.5649831838942</v>
+        <v>154.5649831838943</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>184.0419226799177</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>150.5476783043528</v>
       </c>
       <c r="Y24" t="n">
-        <v>150.5750144158653</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29226,7 +29226,7 @@
         <v>31.34583955592036</v>
       </c>
       <c r="M25" t="n">
-        <v>24.36707598317781</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N25" t="n">
         <v>15.69057404649868</v>
@@ -29305,10 +29305,10 @@
         <v>212.8454786681945</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8454786681961</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681944</v>
       </c>
       <c r="O26" t="n">
         <v>212.8454786681945</v>
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>97.34343336253156</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29399,22 +29399,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>107.9505726732492</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T27" t="n">
         <v>212.8454786681945</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V27" t="n">
-        <v>212.8454786681945</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8454786681945</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>212.8454786681945</v>
@@ -29460,25 +29460,25 @@
         <v>66.40014143752288</v>
       </c>
       <c r="L28" t="n">
-        <v>31.34583955592036</v>
+        <v>71.2078975070128</v>
       </c>
       <c r="M28" t="n">
-        <v>24.36707598317781</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N28" t="n">
-        <v>88.0257217874962</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="O28" t="n">
         <v>36.71262952723531</v>
       </c>
       <c r="P28" t="n">
-        <v>212.8454786681945</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q28" t="n">
         <v>126.7630388368461</v>
       </c>
       <c r="R28" t="n">
-        <v>212.8454786681945</v>
+        <v>203.1862066784475</v>
       </c>
       <c r="S28" t="n">
         <v>212.8454786681945</v>
@@ -29545,7 +29545,7 @@
         <v>212.8454786681945</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="O29" t="n">
         <v>212.8454786681945</v>
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>161.1504025743248</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29636,25 +29636,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T30" t="n">
         <v>212.8454786681945</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>212.8454786681945</v>
-      </c>
-      <c r="W30" t="n">
-        <v>212.8454786681945</v>
-      </c>
-      <c r="X30" t="n">
-        <v>122.6707605063599</v>
       </c>
       <c r="Y30" t="n">
         <v>212.8454786681945</v>
@@ -29700,19 +29700,19 @@
         <v>31.34583955592036</v>
       </c>
       <c r="M31" t="n">
-        <v>24.36707598317781</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N31" t="n">
-        <v>166.6250967879385</v>
+        <v>15.69057404649868</v>
       </c>
       <c r="O31" t="n">
         <v>36.71262952723531</v>
       </c>
       <c r="P31" t="n">
-        <v>57.82293582615034</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.8454786681945</v>
+        <v>208.7574585675902</v>
       </c>
       <c r="R31" t="n">
         <v>203.1862066784475</v>
@@ -29828,7 +29828,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29873,22 +29873,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
+        <v>201.1979175512641</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>212.8454786681945</v>
       </c>
-      <c r="U33" t="n">
-        <v>212.8454786681945</v>
-      </c>
-      <c r="V33" t="n">
-        <v>97.34343336253139</v>
-      </c>
       <c r="W33" t="n">
-        <v>212.8454786681945</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>212.8454786681945</v>
@@ -29937,16 +29937,16 @@
         <v>31.34583955592036</v>
       </c>
       <c r="M34" t="n">
-        <v>24.36707598317781</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N34" t="n">
-        <v>97.68499377724301</v>
+        <v>76.57468747832773</v>
       </c>
       <c r="O34" t="n">
-        <v>36.71262952723531</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="P34" t="n">
-        <v>212.8454786681945</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q34" t="n">
         <v>126.7630388368461</v>
@@ -30007,19 +30007,19 @@
         <v>235.6788355034176</v>
       </c>
       <c r="J35" t="n">
-        <v>235.6788355034176</v>
+        <v>75.75587581289102</v>
       </c>
       <c r="K35" t="n">
         <v>235.6788355034176</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>140.0261380634587</v>
+      </c>
+      <c r="N35" t="n">
         <v>235.6788355034176</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>235.6788355034176</v>
@@ -30028,16 +30028,16 @@
         <v>235.6788355034176</v>
       </c>
       <c r="Q35" t="n">
-        <v>152.5224587767567</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="R35" t="n">
-        <v>235.6788355034176</v>
+        <v>194.1223785227292</v>
       </c>
       <c r="S35" t="n">
-        <v>235.6788355034176</v>
+        <v>227.241595838945</v>
       </c>
       <c r="T35" t="n">
-        <v>235.6788355034176</v>
+        <v>222.4129770489855</v>
       </c>
       <c r="U35" t="n">
         <v>235.6788355034176</v>
@@ -30062,10 +30062,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30074,7 +30074,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>134.4661933460265</v>
       </c>
       <c r="G36" t="n">
         <v>148.7381381529399</v>
@@ -30113,13 +30113,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>61.99780359880663</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9448597913225</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V36" t="n">
         <v>235.6788355034176</v>
@@ -30174,13 +30174,13 @@
         <v>31.34583955592036</v>
       </c>
       <c r="M37" t="n">
-        <v>24.36707598317781</v>
+        <v>111.2902996560925</v>
       </c>
       <c r="N37" t="n">
         <v>15.69057404649868</v>
       </c>
       <c r="O37" t="n">
-        <v>123.3005862576628</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P37" t="n">
         <v>57.82293582615034</v>
@@ -30192,7 +30192,7 @@
         <v>235.6788355034176</v>
       </c>
       <c r="S37" t="n">
-        <v>235.6788355034176</v>
+        <v>235.3435685609305</v>
       </c>
       <c r="T37" t="n">
         <v>223.7383953681803</v>
@@ -30247,7 +30247,7 @@
         <v>235.6788355034176</v>
       </c>
       <c r="K38" t="n">
-        <v>5.189869058379848</v>
+        <v>72.55306128184318</v>
       </c>
       <c r="L38" t="n">
         <v>235.6788355034176</v>
@@ -30256,7 +30256,7 @@
         <v>235.6788355034176</v>
       </c>
       <c r="N38" t="n">
-        <v>169.035687837282</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30265,7 +30265,7 @@
         <v>235.6788355034176</v>
       </c>
       <c r="Q38" t="n">
-        <v>235.6788355034176</v>
+        <v>88.40663715938581</v>
       </c>
       <c r="R38" t="n">
         <v>235.6788355034176</v>
@@ -30274,7 +30274,7 @@
         <v>227.241595838945</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4129770489855</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="U38" t="n">
         <v>235.6788355034176</v>
@@ -30344,28 +30344,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.044035583042479</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1619212884053</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4706822307765</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9448597913225</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V39" t="n">
         <v>235.6788355034176</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>64.36585824695464</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30399,25 +30399,25 @@
         <v>165.7761987305484</v>
       </c>
       <c r="I40" t="n">
-        <v>235.6788355034176</v>
+        <v>164.6899393962033</v>
       </c>
       <c r="J40" t="n">
         <v>119.8563324981777</v>
       </c>
       <c r="K40" t="n">
-        <v>70.05876192549914</v>
+        <v>66.40014143752288</v>
       </c>
       <c r="L40" t="n">
         <v>31.34583955592036</v>
       </c>
       <c r="M40" t="n">
-        <v>24.36707598317781</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N40" t="n">
         <v>15.69057404649868</v>
       </c>
       <c r="O40" t="n">
-        <v>36.71262952723531</v>
+        <v>156.1284820251201</v>
       </c>
       <c r="P40" t="n">
         <v>57.82293582615034</v>
@@ -30426,13 +30426,13 @@
         <v>126.7630388368461</v>
       </c>
       <c r="R40" t="n">
-        <v>235.6788355034176</v>
+        <v>203.1862066784475</v>
       </c>
       <c r="S40" t="n">
-        <v>235.6788355034176</v>
+        <v>235.3435685609305</v>
       </c>
       <c r="T40" t="n">
-        <v>235.6788355034176</v>
+        <v>223.7383953681803</v>
       </c>
       <c r="U40" t="n">
         <v>235.6788355034176</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="C41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="D41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="E41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="F41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="G41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="H41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="I41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="J41" t="n">
-        <v>235.6788355034176</v>
+        <v>75.75587581289102</v>
       </c>
       <c r="K41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="M41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="N41" t="n">
-        <v>235.6788355034176</v>
+        <v>210.684721413767</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="P41" t="n">
-        <v>235.6788355034176</v>
+        <v>13.35405989412961</v>
       </c>
       <c r="Q41" t="n">
-        <v>152.5224587767569</v>
+        <v>88.40663715938581</v>
       </c>
       <c r="R41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="S41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="T41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="U41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="V41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="W41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="X41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="Y41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R42" t="n">
         <v>134.3183216232903</v>
@@ -30590,19 +30590,19 @@
         <v>191.4706822307765</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9448597913225</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>235.6788355034176</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>151.0061842939712</v>
+        <v>201.5224351685326</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30648,22 +30648,22 @@
         <v>31.34583955592036</v>
       </c>
       <c r="M43" t="n">
-        <v>24.36707598317781</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N43" t="n">
         <v>15.69057404649868</v>
       </c>
       <c r="O43" t="n">
-        <v>156.1284820251203</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P43" t="n">
         <v>57.82293582615034</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.7630388368461</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="R43" t="n">
-        <v>203.1862066784475</v>
+        <v>213.6862625097605</v>
       </c>
       <c r="S43" t="n">
         <v>235.3435685609305</v>
@@ -30672,13 +30672,13 @@
         <v>223.7383953681803</v>
       </c>
       <c r="U43" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="V43" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="W43" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>235.6788355034175</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="C44" t="n">
-        <v>235.6788355034175</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="D44" t="n">
-        <v>235.6788355034175</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="E44" t="n">
-        <v>235.6788355034175</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="F44" t="n">
-        <v>235.6788355034175</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="G44" t="n">
-        <v>235.6788355034175</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="H44" t="n">
-        <v>235.6788355034175</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="I44" t="n">
-        <v>235.6788355034175</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="J44" t="n">
         <v>75.75587581289102</v>
       </c>
       <c r="K44" t="n">
-        <v>235.6788355034175</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="L44" t="n">
-        <v>235.6788355034175</v>
+        <v>43.18226123960081</v>
       </c>
       <c r="M44" t="n">
-        <v>76.76658296386674</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="O44" t="n">
-        <v>235.6788355034175</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="P44" t="n">
-        <v>235.6788355034175</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="Q44" t="n">
-        <v>235.6788355034175</v>
+        <v>88.40663715938581</v>
       </c>
       <c r="R44" t="n">
-        <v>235.6788355034175</v>
+        <v>194.1223785227292</v>
       </c>
       <c r="S44" t="n">
-        <v>235.6788355034175</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="T44" t="n">
-        <v>235.6788355034175</v>
+        <v>222.4129770489855</v>
       </c>
       <c r="U44" t="n">
-        <v>235.6788355034175</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V44" t="n">
-        <v>235.6788355034175</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W44" t="n">
-        <v>235.6788355034175</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X44" t="n">
-        <v>235.6788355034175</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="Y44" t="n">
-        <v>235.6788355034175</v>
+        <v>235.6788355034176</v>
       </c>
     </row>
     <row r="45">
@@ -30818,28 +30818,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.044035583042479</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3183216232903</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4706822307765</v>
+        <v>76.68774372785931</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9448597913225</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V45" t="n">
-        <v>183.1565141045856</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>235.6788355034175</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30885,7 +30885,7 @@
         <v>31.34583955592036</v>
       </c>
       <c r="M46" t="n">
-        <v>99.01459257836868</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N46" t="n">
         <v>15.69057404649868</v>
@@ -30897,25 +30897,25 @@
         <v>57.82293582615034</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.7630388368461</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="R46" t="n">
-        <v>235.6788355034175</v>
+        <v>203.1862066784475</v>
       </c>
       <c r="S46" t="n">
-        <v>235.6788355034175</v>
+        <v>235.3435685609305</v>
       </c>
       <c r="T46" t="n">
-        <v>235.6788355034175</v>
+        <v>234.2384511994939</v>
       </c>
       <c r="U46" t="n">
-        <v>235.6788355034175</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V46" t="n">
-        <v>235.6788355034175</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W46" t="n">
-        <v>235.6788355034175</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H11" t="n">
         <v>4.289083111583158</v>
@@ -31759,31 +31759,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J11" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K11" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L11" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M11" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N11" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O11" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P11" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R11" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S11" t="n">
         <v>9.543510939114002</v>
@@ -31792,7 +31792,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U11" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I12" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J12" t="n">
         <v>21.17066884295609</v>
@@ -31847,16 +31847,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M12" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N12" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O12" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P12" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q12" t="n">
         <v>28.60364634907358</v>
@@ -31865,10 +31865,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S12" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U12" t="n">
         <v>0.01474212119420368</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H13" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I13" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J13" t="n">
         <v>13.28179728076079</v>
@@ -31929,7 +31929,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N13" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O13" t="n">
         <v>26.55334757892103</v>
@@ -31944,10 +31944,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S13" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U13" t="n">
         <v>0.01024698260056125</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H14" t="n">
         <v>4.289083111583158</v>
@@ -31996,31 +31996,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J14" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K14" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L14" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M14" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N14" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O14" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P14" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R14" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S14" t="n">
         <v>9.543510939114002</v>
@@ -32029,7 +32029,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U14" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I15" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J15" t="n">
         <v>21.17066884295609</v>
@@ -32084,16 +32084,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M15" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N15" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O15" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P15" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q15" t="n">
         <v>28.60364634907358</v>
@@ -32102,10 +32102,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S15" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U15" t="n">
         <v>0.01474212119420368</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H16" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I16" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J16" t="n">
         <v>13.28179728076079</v>
@@ -32166,7 +32166,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N16" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O16" t="n">
         <v>26.55334757892103</v>
@@ -32181,10 +32181,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S16" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U16" t="n">
         <v>0.01024698260056125</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H17" t="n">
         <v>4.289083111583158</v>
@@ -32233,31 +32233,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J17" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K17" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L17" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M17" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N17" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O17" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P17" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R17" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S17" t="n">
         <v>9.543510939114002</v>
@@ -32266,7 +32266,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U17" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I18" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J18" t="n">
         <v>21.17066884295609</v>
@@ -32321,16 +32321,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M18" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N18" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O18" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P18" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q18" t="n">
         <v>28.60364634907358</v>
@@ -32339,10 +32339,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S18" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U18" t="n">
         <v>0.01474212119420368</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H19" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I19" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J19" t="n">
         <v>13.28179728076079</v>
@@ -32403,7 +32403,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N19" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O19" t="n">
         <v>26.55334757892103</v>
@@ -32418,10 +32418,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S19" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U19" t="n">
         <v>0.01024698260056125</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H20" t="n">
         <v>4.289083111583158</v>
@@ -32470,31 +32470,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J20" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K20" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L20" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M20" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N20" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O20" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P20" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R20" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S20" t="n">
         <v>9.543510939114002</v>
@@ -32503,7 +32503,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U20" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I21" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J21" t="n">
         <v>21.17066884295609</v>
@@ -32558,16 +32558,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M21" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N21" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O21" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P21" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q21" t="n">
         <v>28.60364634907358</v>
@@ -32576,10 +32576,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S21" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U21" t="n">
         <v>0.01474212119420368</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H22" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I22" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J22" t="n">
         <v>13.28179728076079</v>
@@ -32640,7 +32640,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N22" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O22" t="n">
         <v>26.55334757892103</v>
@@ -32655,10 +32655,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S22" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U22" t="n">
         <v>0.01024698260056125</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H23" t="n">
         <v>4.289083111583158</v>
@@ -32707,31 +32707,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J23" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K23" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L23" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M23" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N23" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O23" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P23" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R23" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S23" t="n">
         <v>9.543510939114002</v>
@@ -32740,7 +32740,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U23" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I24" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J24" t="n">
         <v>21.17066884295609</v>
@@ -32795,16 +32795,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M24" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N24" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O24" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P24" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q24" t="n">
         <v>28.60364634907358</v>
@@ -32813,10 +32813,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S24" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U24" t="n">
         <v>0.01474212119420368</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H25" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I25" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J25" t="n">
         <v>13.28179728076079</v>
@@ -32877,7 +32877,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N25" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O25" t="n">
         <v>26.55334757892103</v>
@@ -32892,10 +32892,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S25" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U25" t="n">
         <v>0.01024698260056125</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H26" t="n">
         <v>4.289083111583158</v>
@@ -32944,31 +32944,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J26" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K26" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L26" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M26" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N26" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O26" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P26" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R26" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S26" t="n">
         <v>9.543510939114002</v>
@@ -32977,7 +32977,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U26" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I27" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J27" t="n">
         <v>21.17066884295609</v>
@@ -33032,16 +33032,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M27" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N27" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O27" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P27" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q27" t="n">
         <v>28.60364634907358</v>
@@ -33050,10 +33050,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S27" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U27" t="n">
         <v>0.01474212119420368</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H28" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I28" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J28" t="n">
         <v>13.28179728076079</v>
@@ -33114,7 +33114,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N28" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O28" t="n">
         <v>26.55334757892103</v>
@@ -33129,10 +33129,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S28" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U28" t="n">
         <v>0.01024698260056125</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H29" t="n">
         <v>4.289083111583158</v>
@@ -33181,31 +33181,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J29" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K29" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L29" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M29" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N29" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O29" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P29" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R29" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S29" t="n">
         <v>9.543510939114002</v>
@@ -33214,7 +33214,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U29" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I30" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J30" t="n">
         <v>21.17066884295609</v>
@@ -33269,16 +33269,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M30" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N30" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O30" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P30" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q30" t="n">
         <v>28.60364634907358</v>
@@ -33287,10 +33287,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S30" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U30" t="n">
         <v>0.01474212119420368</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H31" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I31" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J31" t="n">
         <v>13.28179728076079</v>
@@ -33351,7 +33351,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N31" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O31" t="n">
         <v>26.55334757892103</v>
@@ -33366,10 +33366,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S31" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U31" t="n">
         <v>0.01024698260056125</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H32" t="n">
         <v>4.289083111583158</v>
@@ -33418,31 +33418,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J32" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K32" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L32" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M32" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N32" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O32" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P32" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R32" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S32" t="n">
         <v>9.543510939114002</v>
@@ -33451,7 +33451,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U32" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I33" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J33" t="n">
         <v>21.17066884295609</v>
@@ -33506,16 +33506,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M33" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N33" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O33" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P33" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q33" t="n">
         <v>28.60364634907358</v>
@@ -33524,10 +33524,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S33" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U33" t="n">
         <v>0.01474212119420368</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H34" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I34" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J34" t="n">
         <v>13.28179728076079</v>
@@ -33588,7 +33588,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N34" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O34" t="n">
         <v>26.55334757892103</v>
@@ -33603,10 +33603,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S34" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U34" t="n">
         <v>0.01024698260056125</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H35" t="n">
         <v>4.289083111583158</v>
@@ -33655,31 +33655,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J35" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K35" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L35" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M35" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N35" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O35" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P35" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R35" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S35" t="n">
         <v>9.543510939114002</v>
@@ -33688,7 +33688,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U35" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I36" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J36" t="n">
         <v>21.17066884295609</v>
@@ -33743,16 +33743,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M36" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N36" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O36" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P36" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q36" t="n">
         <v>28.60364634907358</v>
@@ -33761,10 +33761,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S36" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U36" t="n">
         <v>0.01474212119420368</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H37" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I37" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J37" t="n">
         <v>13.28179728076079</v>
@@ -33825,7 +33825,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N37" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O37" t="n">
         <v>26.55334757892103</v>
@@ -33840,10 +33840,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S37" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U37" t="n">
         <v>0.01024698260056125</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H38" t="n">
         <v>4.289083111583158</v>
@@ -33892,31 +33892,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J38" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K38" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L38" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M38" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N38" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O38" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P38" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R38" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S38" t="n">
         <v>9.543510939114002</v>
@@ -33925,7 +33925,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U38" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I39" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J39" t="n">
         <v>21.17066884295609</v>
@@ -33980,16 +33980,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M39" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N39" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O39" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P39" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q39" t="n">
         <v>28.60364634907358</v>
@@ -33998,10 +33998,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S39" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U39" t="n">
         <v>0.01474212119420368</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H40" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I40" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J40" t="n">
         <v>13.28179728076079</v>
@@ -34062,7 +34062,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N40" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O40" t="n">
         <v>26.55334757892103</v>
@@ -34077,10 +34077,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S40" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U40" t="n">
         <v>0.01024698260056125</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H41" t="n">
         <v>4.289083111583158</v>
@@ -34129,31 +34129,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J41" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K41" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L41" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M41" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N41" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O41" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P41" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R41" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S41" t="n">
         <v>9.543510939114002</v>
@@ -34162,7 +34162,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U41" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I42" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J42" t="n">
         <v>21.17066884295609</v>
@@ -34217,16 +34217,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M42" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N42" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O42" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P42" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q42" t="n">
         <v>28.60364634907358</v>
@@ -34235,10 +34235,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S42" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U42" t="n">
         <v>0.01474212119420368</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H43" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I43" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J43" t="n">
         <v>13.28179728076079</v>
@@ -34299,7 +34299,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N43" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O43" t="n">
         <v>26.55334757892103</v>
@@ -34314,10 +34314,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S43" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U43" t="n">
         <v>0.01024698260056125</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H44" t="n">
         <v>4.289083111583158</v>
@@ -34366,31 +34366,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J44" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K44" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L44" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M44" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N44" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O44" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P44" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R44" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S44" t="n">
         <v>9.543510939114002</v>
@@ -34399,7 +34399,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U44" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I45" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J45" t="n">
         <v>21.17066884295609</v>
@@ -34454,16 +34454,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M45" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N45" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O45" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P45" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q45" t="n">
         <v>28.60364634907358</v>
@@ -34472,10 +34472,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S45" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U45" t="n">
         <v>0.01474212119420368</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H46" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I46" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J46" t="n">
         <v>13.28179728076079</v>
@@ -34536,7 +34536,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N46" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O46" t="n">
         <v>26.55334757892103</v>
@@ -34551,10 +34551,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S46" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U46" t="n">
         <v>0.01024698260056125</v>
@@ -35413,25 +35413,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>82.66266089709376</v>
+        <v>49.09995541255846</v>
       </c>
       <c r="M11" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="N11" t="n">
-        <v>82.66266089709376</v>
+        <v>78.24522996402482</v>
       </c>
       <c r="O11" t="n">
-        <v>68.79234972598032</v>
+        <v>36.60257132819586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>80.70032049571083</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>10.53040568032181</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>82.66266089709376</v>
+        <v>79.32275540630221</v>
       </c>
       <c r="N12" t="n">
-        <v>79.32275540630211</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="O12" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="P12" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35571,25 +35571,25 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>82.66266089709376</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="N13" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>46.42447521593694</v>
       </c>
       <c r="P13" t="n">
-        <v>46.4244752159364</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.88974536620501</v>
+        <v>77.88974536620492</v>
       </c>
       <c r="R13" t="n">
-        <v>1.466577524603599</v>
+        <v>1.466577524603514</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>80.70032049571084</v>
       </c>
       <c r="K14" t="n">
-        <v>24.10982524649081</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>49.09995541255844</v>
+        <v>49.09995541255846</v>
       </c>
       <c r="M14" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="N14" t="n">
-        <v>78.2452299640248</v>
+        <v>78.24522996402482</v>
       </c>
       <c r="O14" t="n">
-        <v>82.66266089709376</v>
+        <v>36.60257132819586</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>10.53040568032181</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>82.66266089709376</v>
+        <v>79.32275540630221</v>
       </c>
       <c r="N15" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="O15" t="n">
-        <v>79.32275540630211</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="P15" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35796,37 +35796,37 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.87658547250272</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="K16" t="n">
-        <v>82.66266089709376</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>82.66266089709376</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>41.65155968504766</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="O16" t="n">
-        <v>82.66266089709376</v>
+        <v>2.774974212544458</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.466577524603599</v>
+        <v>1.466577524603656</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>49.09995541255844</v>
+        <v>49.09995541255846</v>
       </c>
       <c r="M17" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="N17" t="n">
-        <v>78.2452299640248</v>
+        <v>78.24522996402482</v>
       </c>
       <c r="O17" t="n">
-        <v>36.60257132819585</v>
+        <v>36.60257132819586</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>65.41667755634627</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35911,13 +35911,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>80.70032049571054</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>15.28364293936454</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>82.66266089709376</v>
+        <v>79.32275540630221</v>
       </c>
       <c r="N18" t="n">
-        <v>79.32275540630211</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="O18" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="P18" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,16 +36124,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>49.09995541255844</v>
+        <v>49.09995541255846</v>
       </c>
       <c r="M20" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="N20" t="n">
-        <v>78.2452299640248</v>
+        <v>78.24522996402482</v>
       </c>
       <c r="O20" t="n">
-        <v>36.60257132819585</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36145,7 +36145,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>80.70032049571054</v>
+        <v>34.64023092681283</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>79.32275540630211</v>
+        <v>79.32275540630221</v>
       </c>
       <c r="N21" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="O21" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="P21" t="n">
-        <v>82.66266089709376</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,19 +36358,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>30.22279999374387</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>49.09995541255844</v>
+        <v>49.09995541255846</v>
       </c>
       <c r="M23" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709386</v>
       </c>
       <c r="N23" t="n">
-        <v>82.66266089709399</v>
+        <v>78.24522996402482</v>
       </c>
       <c r="O23" t="n">
-        <v>82.66266089709399</v>
+        <v>36.60257132819586</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>80.70032049571077</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>82.66266089709399</v>
+        <v>79.32275540630222</v>
       </c>
       <c r="N24" t="n">
-        <v>79.32275540630231</v>
+        <v>82.66266089709386</v>
       </c>
       <c r="O24" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709386</v>
       </c>
       <c r="P24" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709386</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>137.0896028553035</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6556096098146</v>
+        <v>207.6556096098147</v>
       </c>
       <c r="L26" t="n">
-        <v>261.9454340807529</v>
+        <v>261.945434080753</v>
       </c>
       <c r="M26" t="n">
-        <v>296.6462756582043</v>
+        <v>296.6462756582027</v>
       </c>
       <c r="N26" t="n">
-        <v>291.0907086322193</v>
+        <v>291.0907086322192</v>
       </c>
       <c r="O26" t="n">
         <v>249.4480499963904</v>
@@ -36616,7 +36616,7 @@
         <v>124.4388415088087</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72310014546524</v>
+        <v>18.7231001454653</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>134.5697545638963</v>
       </c>
       <c r="P27" t="n">
-        <v>85.70459520341235</v>
+        <v>85.70459520341237</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36756,25 +36756,25 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>39.86205795109245</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>72.33514774099751</v>
+        <v>197.1549046216959</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>155.0225428420441</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.659271989747031</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>296.6462756582027</v>
       </c>
       <c r="N29" t="n">
-        <v>291.0907086322192</v>
+        <v>291.0907086322194</v>
       </c>
       <c r="O29" t="n">
         <v>249.4480499963904</v>
@@ -36853,7 +36853,7 @@
         <v>124.4388415088087</v>
       </c>
       <c r="R29" t="n">
-        <v>18.7231001454653</v>
+        <v>18.72310014546523</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>134.5697545638963</v>
       </c>
       <c r="P30" t="n">
-        <v>85.70459520341235</v>
+        <v>85.70459520341237</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36999,16 +36999,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>150.9345227414398</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>155.0225428420442</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.08243983134849</v>
+        <v>81.99441973074413</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>296.6462756582027</v>
       </c>
       <c r="N32" t="n">
-        <v>291.0907086322193</v>
+        <v>291.0907086322194</v>
       </c>
       <c r="O32" t="n">
         <v>249.4480499963904</v>
@@ -37090,7 +37090,7 @@
         <v>124.4388415088087</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72310014546527</v>
+        <v>18.72310014546531</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>134.5697545638963</v>
       </c>
       <c r="P33" t="n">
-        <v>85.70459520341235</v>
+        <v>85.70459520341237</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37236,13 +37236,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>81.99441973074433</v>
+        <v>60.88411343182906</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.1328491409593</v>
       </c>
       <c r="P34" t="n">
-        <v>155.0225428420442</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>159.9229596905266</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>230.4889664450378</v>
       </c>
       <c r="L35" t="n">
-        <v>284.7787909159761</v>
+        <v>49.09995541255846</v>
       </c>
       <c r="M35" t="n">
-        <v>83.80079699000819</v>
+        <v>223.826935053467</v>
       </c>
       <c r="N35" t="n">
-        <v>78.2452299640248</v>
+        <v>313.9240654674425</v>
       </c>
       <c r="O35" t="n">
         <v>272.2814068316135</v>
@@ -37324,16 +37324,16 @@
         <v>222.324775609288</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.11582161737088</v>
+        <v>147.2721983440318</v>
       </c>
       <c r="R35" t="n">
-        <v>41.5564569806884</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.437239664472644</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>13.26585845443219</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>134.5697545638963</v>
       </c>
       <c r="P36" t="n">
-        <v>85.70459520341235</v>
+        <v>85.70459520341237</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>86.92322367291473</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>86.58795673042751</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37485,10 +37485,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>32.49262882497019</v>
+        <v>32.49262882497016</v>
       </c>
       <c r="S37" t="n">
-        <v>0.3352669424871482</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37543,34 +37543,34 @@
         <v>159.9229596905266</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>67.36319222346334</v>
       </c>
       <c r="L38" t="n">
         <v>284.7787909159761</v>
       </c>
       <c r="M38" t="n">
-        <v>319.4796324934258</v>
+        <v>319.4796324934259</v>
       </c>
       <c r="N38" t="n">
-        <v>247.2809178013068</v>
+        <v>313.9240654674425</v>
       </c>
       <c r="O38" t="n">
-        <v>36.60257132819585</v>
+        <v>36.60257132819586</v>
       </c>
       <c r="P38" t="n">
         <v>222.324775609288</v>
       </c>
       <c r="Q38" t="n">
-        <v>147.2721983440318</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>41.55645698068834</v>
+        <v>41.5564569806884</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>13.26585845443219</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>134.5697545638963</v>
       </c>
       <c r="P39" t="n">
-        <v>85.70459520341235</v>
+        <v>85.70459520341237</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37695,13 +37695,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>70.98889610721427</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.658620487976259</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>119.4158524978848</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37722,13 +37722,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>32.49262882497013</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.3352669424870913</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>11.94044013523727</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>159.9229596905266</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>230.4889664450377</v>
+        <v>230.4889664450379</v>
       </c>
       <c r="L41" t="n">
-        <v>49.09995541255844</v>
+        <v>284.7787909159762</v>
       </c>
       <c r="M41" t="n">
-        <v>319.4796324934258</v>
+        <v>319.4796324934259</v>
       </c>
       <c r="N41" t="n">
-        <v>313.9240654674424</v>
+        <v>288.9299513777918</v>
       </c>
       <c r="O41" t="n">
-        <v>36.60257132819585</v>
+        <v>272.2814068316136</v>
       </c>
       <c r="P41" t="n">
-        <v>222.324775609288</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.11582161737111</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>41.55645698068834</v>
+        <v>41.55645698068845</v>
       </c>
       <c r="S41" t="n">
-        <v>8.437239664472587</v>
+        <v>8.437239664472701</v>
       </c>
       <c r="T41" t="n">
-        <v>13.26585845443213</v>
+        <v>13.26585845443225</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>134.5697545638963</v>
       </c>
       <c r="P42" t="n">
-        <v>85.70459520341235</v>
+        <v>85.70459520341237</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37950,16 +37950,16 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>119.415852497885</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>108.9157966665717</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>10.50005583131304</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38020,13 +38020,13 @@
         <v>230.4889664450377</v>
       </c>
       <c r="L44" t="n">
-        <v>284.7787909159759</v>
+        <v>92.28221665215926</v>
       </c>
       <c r="M44" t="n">
-        <v>160.5673799538749</v>
+        <v>319.4796324934258</v>
       </c>
       <c r="N44" t="n">
-        <v>78.2452299640248</v>
+        <v>313.9240654674423</v>
       </c>
       <c r="O44" t="n">
         <v>272.2814068316134</v>
@@ -38035,16 +38035,16 @@
         <v>222.3247756092879</v>
       </c>
       <c r="Q44" t="n">
-        <v>147.2721983440317</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>41.55645698068828</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>8.43723966447253</v>
+        <v>8.437239664472559</v>
       </c>
       <c r="T44" t="n">
-        <v>13.26585845443208</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>134.5697545638963</v>
       </c>
       <c r="P45" t="n">
-        <v>85.70459520341235</v>
+        <v>85.70459520341237</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>74.64751659519088</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -38193,16 +38193,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>108.9157966665715</v>
       </c>
       <c r="R46" t="n">
-        <v>32.49262882497008</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.3352669424870345</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>11.94044013523721</v>
+        <v>10.50005583131356</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
